--- a/10. Calculators/OpenCoreCalcs.xlsx
+++ b/10. Calculators/OpenCoreCalcs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>CSR-Active-Config Calculator for disabling System Integrity Protection in macOS 10.11 to 12 (OC 0.7.4+)</t>
   </si>
@@ -43,6 +43,36 @@
     <t>10.11</t>
   </si>
   <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>HEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>STORAGE</t>
+    </r>
+  </si>
+  <si>
     <t>BITMASK</t>
   </si>
   <si>
@@ -61,115 +91,115 @@
     <t>8 Bit</t>
   </si>
   <si>
-    <t>BIT#</t>
+    <t>FLAG / FUNCTION</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Untrusted Kexts </t>
+  </si>
+  <si>
+    <t>Allow Unrestricted FileSystem</t>
+  </si>
+  <si>
+    <t>AllowTask for PID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Kernel Debugger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Apple Internal </t>
+  </si>
+  <si>
+    <t>Allow Unrestricted DTrace</t>
+  </si>
+  <si>
+    <t>Allow Unrestricted NVRAM</t>
+  </si>
+  <si>
+    <t>Allow Device Configuration</t>
+  </si>
+  <si>
+    <t>Allow Any Recovery OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Unapproved Kexts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Executable Policy Override </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Unauthenticated Root </t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>SUM (DEC)</t>
+  </si>
+  <si>
+    <t>CONVERTED to HEX  (Clover)</t>
+  </si>
+  <si>
+    <t>CONVERTED to HEX (OpenCore)</t>
+  </si>
+  <si>
+    <t>CSR-ACTIVE-CONFIG (REVERSED ORDER)</t>
+  </si>
+  <si>
+    <t>6F 02 00 00</t>
+  </si>
+  <si>
+    <t>67 08 00 00</t>
+  </si>
+  <si>
+    <t>FF 07 00 00</t>
+  </si>
+  <si>
+    <t>FF 03 00 00</t>
+  </si>
+  <si>
+    <t>67 00 00 00</t>
+  </si>
+  <si>
+    <t>PRESETS</t>
+  </si>
+  <si>
+    <t>SIP fully enabled</t>
+  </si>
+  <si>
+    <t>00 00 00 00</t>
+  </si>
+  <si>
+    <t>Disable Kext signing and FS Protection</t>
+  </si>
+  <si>
+    <t>03 00 00 00</t>
+  </si>
+  <si>
+    <t>SIP fully disabled</t>
+  </si>
+  <si>
+    <t>FF 0F 00 00</t>
+  </si>
+  <si>
+    <t>FF 01 00 00</t>
+  </si>
+  <si>
+    <t>FF 00 00 00</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
+    <t>ScanPolicy Calculator (OC 0.7.4+)</t>
   </si>
   <si>
     <t>STORAGE</t>
-  </si>
-  <si>
-    <t>FLAG / FUNCTION</t>
-  </si>
-  <si>
-    <t>HEX</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Untrusted Kexts </t>
-  </si>
-  <si>
-    <t>Allow Unrestricted FileSystem</t>
-  </si>
-  <si>
-    <t>AllowTask for PID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Kernel Debugger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Apple Internal </t>
-  </si>
-  <si>
-    <t>Allow Unrestricted DTrace</t>
-  </si>
-  <si>
-    <t>Allow Unrestricted NVRAM</t>
-  </si>
-  <si>
-    <t>Allow Device Configuration</t>
-  </si>
-  <si>
-    <t>Allow Any Recovery OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Unapproved Kexts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Executable Policy Override </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Unauthenticated Root </t>
-  </si>
-  <si>
-    <t>SUM (DEC)</t>
-  </si>
-  <si>
-    <t>CONVERTED to HEX  (Clover)</t>
-  </si>
-  <si>
-    <t>CONVERTED to HEX (OpenCore)</t>
-  </si>
-  <si>
-    <t>CSR-ACTIVE-CONFIG (BYTE REVERESED)</t>
-  </si>
-  <si>
-    <t>6F 02 00 00</t>
-  </si>
-  <si>
-    <t>Presets</t>
-  </si>
-  <si>
-    <t>SIP fully enabled</t>
-  </si>
-  <si>
-    <t>00 00 00 00</t>
-  </si>
-  <si>
-    <t>Disable Kext signing and FS Protection</t>
-  </si>
-  <si>
-    <t>03 00 00 00</t>
-  </si>
-  <si>
-    <t>SIP fully disabled</t>
-  </si>
-  <si>
-    <t>FF 0F 00 00</t>
-  </si>
-  <si>
-    <t>FF 07 00 00</t>
-  </si>
-  <si>
-    <t>FF 03 00 00</t>
-  </si>
-  <si>
-    <t>FF 01 00 00</t>
-  </si>
-  <si>
-    <t>FF 00 00 00</t>
-  </si>
-  <si>
-    <t>Recommended</t>
-  </si>
-  <si>
-    <t>67 08 00 00</t>
-  </si>
-  <si>
-    <t>67 00 00 00</t>
-  </si>
-  <si>
-    <t>ScanPolicy Calculator (OC 0.7.4+)</t>
   </si>
   <si>
     <t>FEATURE</t>
@@ -367,13 +397,12 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue Medium"/>
     </font>
@@ -417,9 +446,10 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -470,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="106">
     <border>
       <left/>
       <right/>
@@ -743,6 +773,51 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
@@ -752,11 +827,11 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="12"/>
@@ -764,25 +839,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -794,7 +854,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="medium">
@@ -809,30 +869,855 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="dotted">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
+      <right style="hair">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="9"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="9"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
@@ -842,88 +1727,268 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
       <right style="hair">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom style="hair">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dotted">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -932,400 +1997,40 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
         <color indexed="8"/>
       </left>
       <right>
         <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="dotted">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
+      <top>
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -1334,112 +2039,7 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="hair">
@@ -1448,653 +2048,8 @@
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
       <bottom style="hair">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2134,7 +2089,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2208,13 +2163,16 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2231,11 +2189,11 @@
     <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2246,44 +2204,53 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="1" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2291,10 +2258,10 @@
     <xf numFmtId="0" fontId="1" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2312,11 +2279,14 @@
     <xf numFmtId="0" fontId="1" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2325,16 +2295,13 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2343,237 +2310,216 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="60" fontId="1" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="64" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="1" fillId="2" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="92" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="93" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="95" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="97" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="82" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="92" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="93" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="95" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="97" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="93" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="99" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="100" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="98" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="101" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="99" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="100" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="103" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="107" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="108" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2582,17 +2528,68 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="108" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="108" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="108" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="108" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -2600,79 +2597,31 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="19" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="109" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="109" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="109" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="110" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2714,23 +2663,23 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>89668</xdr:rowOff>
+      <xdr:rowOff>52520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>68222</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133332</xdr:rowOff>
+      <xdr:colOff>23772</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>33319</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="USEAGE:…"/>
+        <xdr:cNvPr id="2" name="USAGE:…"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-12700" y="6573653"/>
-          <a:ext cx="6278523" cy="2362685"/>
+          <a:off x="-12700" y="6536505"/>
+          <a:ext cx="6272173" cy="2932280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2793,7 +2742,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>USEAGE</a:t>
+            <a:t>USAGE</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -2895,7 +2844,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Copy the Hex values for the flags you want to set from »Storage« to the »HEX« fields of the macOS version you want to calculate a »csr-active-config« for.</a:t>
+            <a:t>Copy the Hex values for the flags you want to set from »HEX Storage« to the »HEX« fields of the macOS version you want to calculate a »csr-active-config« for.</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -2946,7 +2895,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>The result of the calculation is displayed in »CSR-ACTIVE-CONFIG (HEX)«</a:t>
+            <a:t>The result of the calculation is displayed in »CONVERTED to HEX (OpenCore)«</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -3226,7 +3175,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>NOTE</a:t>
+            <a:t>NOTE 1</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -3239,7 +3188,135 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>: Bit #5 needs to be unset in order to get notified about System Updates!</a:t>
+            <a:t>: In macOS BigSur/Monterey, Bit 5 needs to be unset in order to get notified about System Updates!</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>NOTE 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>: The Hex value for Clover can be used as is, no byte swapping and adding 00’s is required.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>NOTE 3: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>The column »AllowToggleSIP« lists the flags applied when using the »ToggleSIP« feature in OpenCore’s BootPicker (has to be enabled in config.plist first).</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3250,14 +3327,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>54032</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>246286</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>70919</xdr:rowOff>
+      <xdr:colOff>208186</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>30808</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3266,7 +3343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-12700" y="9067857"/>
+          <a:off x="-12700" y="9449386"/>
           <a:ext cx="7675787" cy="4233288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6167,7 +6244,7 @@
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1016" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6016" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.7344" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6719" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.85156" style="1" customWidth="1"/>
@@ -6278,733 +6355,809 @@
       <c r="A5" t="s" s="24">
         <v>9</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" t="s" s="27">
+      <c r="B5" t="s" s="26">
         <v>10</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" t="s" s="27">
-        <v>10</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" t="s" s="27">
+      <c r="C5" t="s" s="27">
         <v>11</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" t="s" s="27">
+      <c r="D5" t="s" s="28">
         <v>12</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" t="s" s="27">
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" t="s" s="28">
+        <v>12</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" t="s" s="28">
         <v>13</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" t="s" s="30">
+      <c r="J5" s="29"/>
+      <c r="K5" t="s" s="28">
         <v>14</v>
       </c>
-      <c r="P5" s="31"/>
+      <c r="L5" s="29"/>
+      <c r="M5" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" t="s" s="31">
+        <v>16</v>
+      </c>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" ht="17.65" customHeight="1">
-      <c r="A6" t="s" s="32">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="33">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="34">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" t="s" s="35">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="35">
+      <c r="D6" t="s" s="36">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="36">
+      <c r="E6" t="s" s="37">
         <v>19</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" t="s" s="35">
+      <c r="F6" s="30"/>
+      <c r="G6" t="s" s="36">
         <v>18</v>
       </c>
-      <c r="H6" t="s" s="36">
+      <c r="H6" t="s" s="37">
         <v>19</v>
       </c>
-      <c r="I6" t="s" s="35">
+      <c r="I6" t="s" s="36">
         <v>18</v>
       </c>
-      <c r="J6" t="s" s="36">
+      <c r="J6" t="s" s="37">
         <v>19</v>
       </c>
-      <c r="K6" t="s" s="35">
+      <c r="K6" t="s" s="36">
         <v>18</v>
       </c>
-      <c r="L6" t="s" s="36">
+      <c r="L6" t="s" s="37">
         <v>19</v>
       </c>
-      <c r="M6" t="s" s="35">
+      <c r="M6" t="s" s="36">
         <v>18</v>
       </c>
-      <c r="N6" t="s" s="36">
+      <c r="N6" t="s" s="37">
         <v>19</v>
       </c>
-      <c r="O6" t="s" s="35">
+      <c r="O6" t="s" s="36">
         <v>18</v>
       </c>
-      <c r="P6" t="s" s="36">
+      <c r="P6" t="s" s="37">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="37">
+      <c r="A7" s="38">
         <v>1</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="39">
+      <c r="C7" t="s" s="40">
         <v>20</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="41">
         <v>1</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="42">
         <f>HEX2DEC(D7)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41">
+      <c r="F7" s="43"/>
+      <c r="G7" s="41">
+        <v>1</v>
+      </c>
+      <c r="H7" s="42">
         <f>HEX2DEC(G7)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41">
+        <v>1</v>
+      </c>
+      <c r="I7" s="41">
+        <v>1</v>
+      </c>
+      <c r="J7" s="42">
         <f>HEX2DEC(I7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41">
+        <v>1</v>
+      </c>
+      <c r="K7" s="41">
+        <v>1</v>
+      </c>
+      <c r="L7" s="42">
         <f>HEX2DEC(K7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41">
+        <v>1</v>
+      </c>
+      <c r="M7" s="41">
+        <v>1</v>
+      </c>
+      <c r="N7" s="42">
         <f>HEX2DEC(M7)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="40">
         <v>1</v>
       </c>
-      <c r="P7" s="41">
+      <c r="O7" s="41">
+        <v>1</v>
+      </c>
+      <c r="P7" s="42">
         <f>HEX2DEC(O7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="17.65" customHeight="1">
-      <c r="A8" s="37">
+      <c r="A8" s="38">
         <v>2</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="39">
         <v>2</v>
       </c>
-      <c r="C8" t="s" s="43">
+      <c r="C8" t="s" s="44">
         <v>21</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="41">
         <v>2</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="42">
         <f>HEX2DEC(D8)</f>
         <v>2</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41">
+      <c r="F8" s="43"/>
+      <c r="G8" s="41">
+        <v>2</v>
+      </c>
+      <c r="H8" s="42">
         <f>HEX2DEC(G8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41">
+        <v>2</v>
+      </c>
+      <c r="J8" s="42">
         <f>HEX2DEC(I8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41">
+        <v>2</v>
+      </c>
+      <c r="L8" s="42">
         <f>HEX2DEC(K8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41">
+        <v>2</v>
+      </c>
+      <c r="N8" s="42">
         <f>HEX2DEC(M8)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="40">
         <v>2</v>
       </c>
-      <c r="P8" s="41">
+      <c r="O8" s="41">
+        <v>2</v>
+      </c>
+      <c r="P8" s="42">
         <f>HEX2DEC(O8)</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="17.65" customHeight="1">
-      <c r="A9" s="37">
+      <c r="A9" s="38">
         <v>3</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="43">
+      <c r="C9" t="s" s="44">
         <v>22</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="41">
         <v>4</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="42">
         <f>HEX2DEC(D9)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41">
+      <c r="F9" s="43"/>
+      <c r="G9" s="41">
+        <v>4</v>
+      </c>
+      <c r="H9" s="42">
         <f>HEX2DEC(G9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41">
+        <v>4</v>
+      </c>
+      <c r="I9" s="41">
+        <v>4</v>
+      </c>
+      <c r="J9" s="42">
         <f>HEX2DEC(I9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41">
+        <v>4</v>
+      </c>
+      <c r="K9" s="41">
+        <v>4</v>
+      </c>
+      <c r="L9" s="42">
         <f>HEX2DEC(K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="41">
+        <v>4</v>
+      </c>
+      <c r="M9" s="41">
+        <v>4</v>
+      </c>
+      <c r="N9" s="42">
         <f>HEX2DEC(M9)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="40">
         <v>4</v>
       </c>
-      <c r="P9" s="41">
+      <c r="O9" s="41">
+        <v>4</v>
+      </c>
+      <c r="P9" s="42">
         <f>HEX2DEC(O9)</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="17.65" customHeight="1">
-      <c r="A10" s="37">
+      <c r="A10" s="38">
         <v>4</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="39">
         <v>8</v>
       </c>
-      <c r="C10" t="s" s="43">
+      <c r="C10" t="s" s="44">
         <v>23</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="41">
         <v>8</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="42">
         <f>HEX2DEC(D10)</f>
         <v>8</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41">
+      <c r="F10" s="43"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42">
         <f>HEX2DEC(G10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41">
+      <c r="I10" s="41">
+        <v>8</v>
+      </c>
+      <c r="J10" s="42">
         <f>HEX2DEC(I10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41">
+        <v>8</v>
+      </c>
+      <c r="K10" s="41">
+        <v>8</v>
+      </c>
+      <c r="L10" s="42">
         <f>HEX2DEC(K10)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41">
+        <v>8</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42">
         <f>HEX2DEC(M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41">
+      <c r="O10" s="41"/>
+      <c r="P10" s="42">
         <f>HEX2DEC(O10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="17.65" customHeight="1">
-      <c r="A11" s="44">
+      <c r="A11" s="45">
         <v>5</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="46">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="46">
+      <c r="C11" t="s" s="47">
         <v>24</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41">
+      <c r="D11" s="41"/>
+      <c r="E11" s="42">
         <f>HEX2DEC(D11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41">
+      <c r="F11" s="43"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42">
         <f>HEX2DEC(G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41">
+      <c r="I11" s="48">
+        <v>10</v>
+      </c>
+      <c r="J11" s="42">
         <f>HEX2DEC(I11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41">
+        <v>16</v>
+      </c>
+      <c r="K11" s="48">
+        <v>10</v>
+      </c>
+      <c r="L11" s="42">
         <f>HEX2DEC(K11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="41">
+        <v>16</v>
+      </c>
+      <c r="M11" s="48"/>
+      <c r="N11" s="42">
         <f>HEX2DEC(M11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41">
+      <c r="O11" s="41"/>
+      <c r="P11" s="42">
         <f>HEX2DEC(O11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="17.65" customHeight="1">
-      <c r="A12" s="37">
+      <c r="A12" s="38">
         <v>6</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="39">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="43">
+      <c r="C12" t="s" s="44">
         <v>25</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="41">
         <v>20</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="42">
         <f>HEX2DEC(D12)</f>
         <v>32</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41">
+      <c r="F12" s="43"/>
+      <c r="G12" s="41">
+        <v>20</v>
+      </c>
+      <c r="H12" s="42">
         <f>HEX2DEC(G12)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41">
+        <v>32</v>
+      </c>
+      <c r="I12" s="41">
+        <v>20</v>
+      </c>
+      <c r="J12" s="42">
         <f>HEX2DEC(I12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41">
+        <v>32</v>
+      </c>
+      <c r="K12" s="41">
+        <v>20</v>
+      </c>
+      <c r="L12" s="42">
         <f>HEX2DEC(K12)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="41">
+        <v>32</v>
+      </c>
+      <c r="M12" s="41">
+        <v>20</v>
+      </c>
+      <c r="N12" s="42">
         <f>HEX2DEC(M12)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="40">
+        <v>32</v>
+      </c>
+      <c r="O12" s="41">
         <v>20</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="42">
         <f>HEX2DEC(O12)</f>
         <v>32</v>
       </c>
     </row>
     <row r="13" ht="17.65" customHeight="1">
-      <c r="A13" s="37">
+      <c r="A13" s="38">
         <v>7</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="39">
         <v>40</v>
       </c>
-      <c r="C13" t="s" s="43">
+      <c r="C13" t="s" s="44">
         <v>26</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="41">
         <v>40</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="42">
         <f>HEX2DEC(D13)</f>
         <v>64</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41">
+      <c r="F13" s="43"/>
+      <c r="G13" s="41">
+        <v>40</v>
+      </c>
+      <c r="H13" s="42">
         <f>HEX2DEC(G13)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41">
+        <v>64</v>
+      </c>
+      <c r="I13" s="41">
+        <v>40</v>
+      </c>
+      <c r="J13" s="42">
         <f>HEX2DEC(I13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41">
+        <v>64</v>
+      </c>
+      <c r="K13" s="41">
+        <v>40</v>
+      </c>
+      <c r="L13" s="42">
         <f>HEX2DEC(K13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="41">
+        <v>64</v>
+      </c>
+      <c r="M13" s="41">
+        <v>40</v>
+      </c>
+      <c r="N13" s="42">
         <f>HEX2DEC(M13)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="40">
+        <v>64</v>
+      </c>
+      <c r="O13" s="41">
         <v>40</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="42">
         <f>HEX2DEC(O13)</f>
         <v>64</v>
       </c>
     </row>
     <row r="14" ht="18.15" customHeight="1">
-      <c r="A14" s="37">
+      <c r="A14" s="38">
         <v>8</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="39">
         <v>80</v>
       </c>
-      <c r="C14" t="s" s="39">
+      <c r="C14" t="s" s="40">
         <v>27</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41">
+      <c r="D14" s="41"/>
+      <c r="E14" s="42">
         <f>HEX2DEC(D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41">
+      <c r="F14" s="43"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42">
         <f>HEX2DEC(G14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41">
+      <c r="I14" s="41">
+        <v>80</v>
+      </c>
+      <c r="J14" s="42">
         <f>HEX2DEC(I14)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41">
+        <v>128</v>
+      </c>
+      <c r="K14" s="41">
+        <v>80</v>
+      </c>
+      <c r="L14" s="42">
         <f>HEX2DEC(K14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41">
+        <v>128</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42">
         <f>HEX2DEC(M14)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48">
+      <c r="O14" s="49"/>
+      <c r="P14" s="50">
         <f>HEX2DEC(O14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="18.65" customHeight="1">
-      <c r="A15" s="37">
+      <c r="A15" s="38">
         <v>9</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="39">
         <v>100</v>
       </c>
-      <c r="C15" t="s" s="43">
+      <c r="C15" t="s" s="44">
         <v>28</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41">
+      <c r="D15" s="41"/>
+      <c r="E15" s="42">
         <f>HEX2DEC(D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41">
+      <c r="F15" s="43"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42">
         <f>HEX2DEC(G15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41">
+      <c r="I15" s="41">
+        <v>100</v>
+      </c>
+      <c r="J15" s="42">
         <f>HEX2DEC(I15)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="41">
+        <v>256</v>
+      </c>
+      <c r="K15" s="41">
+        <v>100</v>
+      </c>
+      <c r="L15" s="42">
         <f>HEX2DEC(K15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48">
+        <v>256</v>
+      </c>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50">
         <f>HEX2DEC(M15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
     </row>
     <row r="16" ht="18.65" customHeight="1">
-      <c r="A16" s="37">
+      <c r="A16" s="38">
         <v>10</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="39">
         <v>200</v>
       </c>
-      <c r="C16" t="s" s="43">
+      <c r="C16" t="s" s="44">
         <v>29</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="41">
         <v>200</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="42">
         <f>HEX2DEC(D16)</f>
         <v>512</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41">
+      <c r="F16" s="43"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42">
         <f>HEX2DEC(G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41">
+      <c r="I16" s="41">
+        <v>200</v>
+      </c>
+      <c r="J16" s="42">
         <f>HEX2DEC(I16)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53">
+        <v>512</v>
+      </c>
+      <c r="K16" s="49">
+        <v>200</v>
+      </c>
+      <c r="L16" s="50">
         <f>HEX2DEC(K16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+        <v>512</v>
+      </c>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" ht="18.65" customHeight="1">
-      <c r="A17" s="37">
+      <c r="A17" s="38">
         <v>11</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="39">
         <v>400</v>
       </c>
-      <c r="C17" t="s" s="43">
+      <c r="C17" t="s" s="44">
         <v>30</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41">
+      <c r="D17" s="41"/>
+      <c r="E17" s="42">
         <f>HEX2DEC(D17)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41">
+      <c r="F17" s="43"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42">
         <f>HEX2DEC(G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48">
+      <c r="I17" s="49">
+        <v>400</v>
+      </c>
+      <c r="J17" s="50">
         <f>HEX2DEC(I17)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="63"/>
+        <v>1024</v>
+      </c>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
     </row>
     <row r="18" ht="18.65" customHeight="1">
-      <c r="A18" s="64">
+      <c r="A18" s="63">
         <v>12</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="64">
         <v>800</v>
       </c>
-      <c r="C18" t="s" s="66">
+      <c r="C18" t="s" s="65">
         <v>31</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48">
+      <c r="D18" s="49"/>
+      <c r="E18" s="50">
         <f>HEX2DEC(D18)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48">
+      <c r="F18" s="43"/>
+      <c r="G18" s="49">
+        <v>800</v>
+      </c>
+      <c r="H18" s="50">
         <f>HEX2DEC(G18)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="68"/>
+        <v>2048</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="67"/>
     </row>
     <row r="19" ht="17.15" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
     </row>
     <row r="20" ht="17.65" customHeight="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" t="s" s="79">
+      <c r="A20" t="s" s="76">
         <v>32</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81">
+      <c r="B20" s="77"/>
+      <c r="C20" t="s" s="78">
+        <v>33</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80">
         <f>SUM(E7:E18)</f>
         <v>623</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="81">
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="80">
         <f>SUM(H7:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="81">
+        <v>2151</v>
+      </c>
+      <c r="I20" s="83"/>
+      <c r="J20" s="80">
         <f>SUM(J7:J17)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="85"/>
-      <c r="L20" s="86">
+        <v>2047</v>
+      </c>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85">
         <f>SUM(L7:L16)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="87"/>
-      <c r="N20" s="88">
+        <v>1023</v>
+      </c>
+      <c r="M20" s="86"/>
+      <c r="N20" s="87">
         <f>SUM(N7:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="87"/>
-      <c r="P20" s="81">
+        <v>103</v>
+      </c>
+      <c r="O20" s="86"/>
+      <c r="P20" s="80">
         <f>SUM(P7:P14)</f>
         <v>103</v>
       </c>
     </row>
     <row r="21" ht="17.65" customHeight="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
-      <c r="C21" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90">
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" t="s" s="78">
+        <v>34</v>
+      </c>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91">
         <f>DEC2HEX(E22,8)</f>
         <v>623</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="90">
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="91">
         <f>DEC2HEX(H22,8)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="90">
+        <v>2151</v>
+      </c>
+      <c r="I21" s="94"/>
+      <c r="J21" s="91">
         <f>DEC2HEX(J22,8)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="94">
+        <v>2047</v>
+      </c>
+      <c r="K21" s="94"/>
+      <c r="L21" s="95">
         <f>DEC2HEX(L22,8)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="95"/>
-      <c r="N21" s="94">
+        <v>1023</v>
+      </c>
+      <c r="M21" s="96"/>
+      <c r="N21" s="95">
         <f>DEC2HEX(N22,8)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="95"/>
-      <c r="P21" s="90">
+        <v>103</v>
+      </c>
+      <c r="O21" s="96"/>
+      <c r="P21" s="91">
         <f>DEC2HEX(P22,8)</f>
         <v>103</v>
       </c>
     </row>
     <row r="22" ht="17.65" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="96">
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" t="s" s="78">
+        <v>35</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="97">
         <f>DEC2HEX(E20,8)</f>
         <v>623</v>
       </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="96">
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="97">
         <f>DEC2HEX(H20,8)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="96">
+        <v>2151</v>
+      </c>
+      <c r="I22" s="100"/>
+      <c r="J22" s="97">
         <f>DEC2HEX(J20,8)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="100"/>
-      <c r="L22" s="101">
+        <v>2047</v>
+      </c>
+      <c r="K22" s="101"/>
+      <c r="L22" s="102">
         <f>DEC2HEX(L20,8)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="95"/>
-      <c r="N22" s="102">
+        <v>1023</v>
+      </c>
+      <c r="M22" s="96"/>
+      <c r="N22" s="103">
         <f>DEC2HEX(N20,8)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96">
+        <v>103</v>
+      </c>
+      <c r="O22" s="96"/>
+      <c r="P22" s="97">
         <f>DEC2HEX(P20,8)</f>
         <v>103</v>
       </c>
     </row>
     <row r="23" ht="17.65" customHeight="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" t="s" s="103">
-        <v>35</v>
-      </c>
-      <c r="D23" s="104"/>
-      <c r="E23" t="s" s="105">
+      <c r="A23" s="104"/>
+      <c r="B23" s="105"/>
+      <c r="C23" t="s" s="106">
         <v>36</v>
       </c>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="112"/>
+      <c r="D23" s="107"/>
+      <c r="E23" t="s" s="108">
+        <v>37</v>
+      </c>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="I23" s="107"/>
+      <c r="J23" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="K23" s="107"/>
+      <c r="L23" t="s" s="111">
+        <v>40</v>
+      </c>
+      <c r="M23" s="112"/>
+      <c r="N23" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="O23" s="107"/>
+      <c r="P23" t="s" s="108">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" ht="17.65" customHeight="1">
       <c r="A24" s="113"/>
@@ -7026,133 +7179,132 @@
     </row>
     <row r="25" ht="17.65" customHeight="1">
       <c r="A25" t="s" s="120">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" s="121"/>
       <c r="C25" t="s" s="122">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D25" s="123"/>
       <c r="E25" s="124"/>
       <c r="F25" s="125"/>
       <c r="G25" s="126"/>
       <c r="H25" t="s" s="127">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I25" s="128"/>
       <c r="J25" t="s" s="127">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K25" s="128"/>
       <c r="L25" t="s" s="127">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M25" s="128"/>
       <c r="N25" t="s" s="127">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O25" s="128"/>
       <c r="P25" t="s" s="127">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="17.65" customHeight="1">
       <c r="A26" s="129"/>
       <c r="B26" s="121"/>
       <c r="C26" t="s" s="130">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D26" s="131"/>
       <c r="E26" s="132"/>
       <c r="F26" s="133"/>
       <c r="G26" s="134"/>
       <c r="H26" t="s" s="127">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I26" s="135"/>
       <c r="J26" t="s" s="127">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K26" s="135"/>
       <c r="L26" t="s" s="127">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M26" s="135"/>
       <c r="N26" t="s" s="127">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O26" s="135"/>
       <c r="P26" t="s" s="127">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="17.65" customHeight="1">
       <c r="A27" s="136"/>
-      <c r="B27" s="137"/>
-      <c r="C27" t="s" s="138">
-        <v>42</v>
+      <c r="B27" s="77"/>
+      <c r="C27" t="s" s="137">
+        <v>47</v>
       </c>
       <c r="D27" s="131"/>
       <c r="E27" s="132"/>
       <c r="F27" s="133"/>
       <c r="G27" s="134"/>
       <c r="H27" t="s" s="127">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I27" s="135"/>
       <c r="J27" t="s" s="127">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27" s="135"/>
       <c r="L27" t="s" s="127">
-        <v>45</v>
-      </c>
-      <c r="M27" s="139"/>
-      <c r="N27" t="s" s="140">
-        <v>46</v>
-      </c>
-      <c r="O27" s="141"/>
+        <v>40</v>
+      </c>
+      <c r="M27" s="138"/>
+      <c r="N27" t="s" s="139">
+        <v>49</v>
+      </c>
+      <c r="O27" s="140"/>
       <c r="P27" t="s" s="127">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="17.65" customHeight="1">
-      <c r="A28" s="142"/>
-      <c r="B28" s="143"/>
-      <c r="C28" t="s" s="144">
-        <v>48</v>
-      </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="146"/>
-      <c r="H28" t="s" s="147">
-        <v>49</v>
-      </c>
-      <c r="I28" s="104"/>
-      <c r="J28" t="s" s="147">
-        <v>44</v>
-      </c>
-      <c r="K28" s="104"/>
-      <c r="L28" t="s" s="147">
-        <v>45</v>
-      </c>
-      <c r="M28" s="104"/>
-      <c r="N28" t="s" s="147">
-        <v>50</v>
-      </c>
-      <c r="O28" s="104"/>
-      <c r="P28" t="s" s="147">
-        <v>50</v>
+      <c r="A28" s="104"/>
+      <c r="B28" s="105"/>
+      <c r="C28" t="s" s="141">
+        <v>51</v>
+      </c>
+      <c r="D28" s="109"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="143"/>
+      <c r="H28" t="s" s="144">
+        <v>38</v>
+      </c>
+      <c r="I28" s="107"/>
+      <c r="J28" t="s" s="144">
+        <v>39</v>
+      </c>
+      <c r="K28" s="107"/>
+      <c r="L28" t="s" s="144">
+        <v>40</v>
+      </c>
+      <c r="M28" s="107"/>
+      <c r="N28" t="s" s="144">
+        <v>41</v>
+      </c>
+      <c r="O28" s="107"/>
+      <c r="P28" t="s" s="144">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
@@ -7165,6 +7317,9 @@
     <mergeCell ref="G3:P3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="A25:B28"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A20:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7183,321 +7338,321 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.8516" style="148" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="148" customWidth="1"/>
-    <col min="4" max="4" width="11.8516" style="148" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="148" customWidth="1"/>
+    <col min="1" max="2" width="10.8516" style="145" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="145" customWidth="1"/>
+    <col min="4" max="4" width="11.8516" style="145" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="145" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.15" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="153">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s" s="154">
+      <c r="A3" t="s" s="150">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s" s="151">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="33">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s" s="154">
+      <c r="C3" t="s" s="152">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s" s="151">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="158"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="156"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="159">
+      <c r="A5" s="157">
         <v>1</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="160">
-        <v>53</v>
-      </c>
-      <c r="D5" s="161">
+      <c r="C5" t="s" s="158">
+        <v>55</v>
+      </c>
+      <c r="D5" s="159">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="159">
+      <c r="A6" s="157">
         <v>2</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="160">
-        <v>54</v>
-      </c>
-      <c r="D6" s="161">
+      <c r="C6" t="s" s="158">
+        <v>56</v>
+      </c>
+      <c r="D6" s="159">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="158"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="159">
+      <c r="A8" s="157">
         <v>100</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="39">
         <v>100</v>
       </c>
-      <c r="C8" t="s" s="160">
-        <v>55</v>
-      </c>
-      <c r="D8" s="161">
+      <c r="C8" t="s" s="158">
+        <v>57</v>
+      </c>
+      <c r="D8" s="159">
         <f>HEX2DEC(B8)</f>
         <v>256</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="159">
+      <c r="A9" s="157">
         <v>200</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="39">
         <v>200</v>
       </c>
-      <c r="C9" t="s" s="160">
-        <v>56</v>
-      </c>
-      <c r="D9" s="161">
+      <c r="C9" t="s" s="158">
+        <v>58</v>
+      </c>
+      <c r="D9" s="159">
         <f>HEX2DEC(B9)</f>
         <v>512</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="159">
+      <c r="A10" s="157">
         <v>400</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" t="s" s="160">
-        <v>57</v>
-      </c>
-      <c r="D10" s="161">
+      <c r="B10" s="39"/>
+      <c r="C10" t="s" s="158">
+        <v>59</v>
+      </c>
+      <c r="D10" s="159">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="159">
+      <c r="A11" s="157">
         <v>800</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="39">
         <v>800</v>
       </c>
-      <c r="C11" t="s" s="160">
-        <v>58</v>
-      </c>
-      <c r="D11" s="161">
+      <c r="C11" t="s" s="158">
+        <v>60</v>
+      </c>
+      <c r="D11" s="159">
         <f>HEX2DEC(B11)</f>
         <v>2048</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="159">
+      <c r="A12" s="157">
         <v>1000</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" t="s" s="160">
-        <v>59</v>
-      </c>
-      <c r="D12" s="161">
+      <c r="B12" s="39"/>
+      <c r="C12" t="s" s="158">
+        <v>61</v>
+      </c>
+      <c r="D12" s="159">
         <f>HEX2DEC(B12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="159">
+      <c r="A13" s="157">
         <v>2000</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" t="s" s="160">
-        <v>60</v>
-      </c>
-      <c r="D13" s="161">
+      <c r="B13" s="39"/>
+      <c r="C13" t="s" s="158">
+        <v>62</v>
+      </c>
+      <c r="D13" s="159">
         <f>HEX2DEC(B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="16.65" customHeight="1">
-      <c r="A14" s="159">
+      <c r="A14" s="157">
         <v>4000</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" t="s" s="160">
-        <v>61</v>
-      </c>
-      <c r="D14" s="161">
+      <c r="B14" s="39"/>
+      <c r="C14" t="s" s="158">
+        <v>63</v>
+      </c>
+      <c r="D14" s="159">
         <f>HEX2DEC(B14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="16.65" customHeight="1">
-      <c r="A15" s="159"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="158"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="156"/>
     </row>
     <row r="16" ht="16.65" customHeight="1">
-      <c r="A16" s="159">
+      <c r="A16" s="157">
         <v>10000</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="39">
         <v>10000</v>
       </c>
-      <c r="C16" t="s" s="160">
-        <v>62</v>
-      </c>
-      <c r="D16" s="161">
+      <c r="C16" t="s" s="158">
+        <v>64</v>
+      </c>
+      <c r="D16" s="159">
         <f>HEX2DEC(B16)</f>
         <v>65536</v>
       </c>
     </row>
     <row r="17" ht="16.65" customHeight="1">
-      <c r="A17" s="159">
+      <c r="A17" s="157">
         <v>20000</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" t="s" s="160">
-        <v>63</v>
-      </c>
-      <c r="D17" s="161">
+      <c r="B17" s="39"/>
+      <c r="C17" t="s" s="158">
+        <v>65</v>
+      </c>
+      <c r="D17" s="159">
         <f>HEX2DEC(B17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="16.65" customHeight="1">
-      <c r="A18" s="159">
+      <c r="A18" s="157">
         <v>40000</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" t="s" s="160">
-        <v>64</v>
-      </c>
-      <c r="D18" s="161">
+      <c r="B18" s="39"/>
+      <c r="C18" t="s" s="158">
+        <v>66</v>
+      </c>
+      <c r="D18" s="159">
         <f>HEX2DEC(B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="159">
+      <c r="A19" s="157">
         <v>80000</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="39">
         <v>80000</v>
       </c>
-      <c r="C19" t="s" s="160">
-        <v>65</v>
-      </c>
-      <c r="D19" s="161">
+      <c r="C19" t="s" s="158">
+        <v>67</v>
+      </c>
+      <c r="D19" s="159">
         <f>HEX2DEC(B19)</f>
         <v>524288</v>
       </c>
     </row>
     <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="159">
+      <c r="A20" s="157">
         <v>100000</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" t="s" s="160">
-        <v>66</v>
-      </c>
-      <c r="D20" s="161">
+      <c r="B20" s="39"/>
+      <c r="C20" t="s" s="158">
+        <v>68</v>
+      </c>
+      <c r="D20" s="159">
         <f>HEX2DEC(B20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" s="159">
+      <c r="A21" s="157">
         <v>200000</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="39">
         <v>200000</v>
       </c>
-      <c r="C21" t="s" s="160">
-        <v>67</v>
-      </c>
-      <c r="D21" s="161">
+      <c r="C21" t="s" s="158">
+        <v>69</v>
+      </c>
+      <c r="D21" s="159">
         <f>HEX2DEC(B21)</f>
         <v>2097152</v>
       </c>
     </row>
     <row r="22" ht="16.65" customHeight="1">
-      <c r="A22" s="159">
+      <c r="A22" s="157">
         <v>400000</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" t="s" s="160">
-        <v>68</v>
-      </c>
-      <c r="D22" s="161">
+      <c r="B22" s="39"/>
+      <c r="C22" t="s" s="158">
+        <v>70</v>
+      </c>
+      <c r="D22" s="159">
         <f>HEX2DEC(B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="16.65" customHeight="1">
-      <c r="A23" s="159">
+      <c r="A23" s="157">
         <v>800000</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" t="s" s="160">
-        <v>69</v>
-      </c>
-      <c r="D23" s="161">
+      <c r="B23" s="39"/>
+      <c r="C23" t="s" s="158">
+        <v>71</v>
+      </c>
+      <c r="D23" s="159">
         <f>HEX2DEC(B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="159">
+      <c r="A24" s="157">
         <v>1000000</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" t="s" s="160">
-        <v>70</v>
-      </c>
-      <c r="D24" s="161">
+      <c r="B24" s="39"/>
+      <c r="C24" t="s" s="158">
+        <v>72</v>
+      </c>
+      <c r="D24" s="159">
         <f>HEX2DEC(B24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="16.65" customHeight="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
     </row>
     <row r="26" ht="16.65" customHeight="1">
-      <c r="A26" s="155"/>
-      <c r="B26" s="38"/>
-      <c r="C26" t="s" s="163">
-        <v>71</v>
-      </c>
-      <c r="D26" s="164">
+      <c r="A26" s="153"/>
+      <c r="B26" s="39"/>
+      <c r="C26" t="s" s="161">
+        <v>73</v>
+      </c>
+      <c r="D26" s="162">
         <f>SUM(D5:D24)</f>
         <v>2689795</v>
       </c>
@@ -7523,16 +7678,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.8516" style="165" customWidth="1"/>
-    <col min="3" max="3" width="33" style="165" customWidth="1"/>
-    <col min="4" max="4" width="8.07031" style="165" customWidth="1"/>
-    <col min="5" max="5" width="103.352" style="165" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="165" customWidth="1"/>
+    <col min="1" max="2" width="10.8516" style="163" customWidth="1"/>
+    <col min="3" max="3" width="33" style="163" customWidth="1"/>
+    <col min="4" max="4" width="8.07031" style="163" customWidth="1"/>
+    <col min="5" max="5" width="103.352" style="163" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="163" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7540,188 +7695,188 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="166"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="164"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="169">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s" s="170">
+      <c r="A3" t="s" s="167">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s" s="168">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="170">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s" s="170">
+      <c r="C3" t="s" s="168">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s" s="168">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="170">
-        <v>74</v>
+      <c r="E3" t="s" s="168">
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="155"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="153"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="159">
+      <c r="A5" s="157">
         <v>1</v>
       </c>
-      <c r="B5" s="159">
+      <c r="B5" s="157">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="172">
-        <v>75</v>
-      </c>
-      <c r="D5" s="173">
+      <c r="C5" t="s" s="170">
+        <v>77</v>
+      </c>
+      <c r="D5" s="171">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="174">
-        <v>76</v>
+      <c r="E5" t="s" s="172">
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="159">
+      <c r="A6" s="157">
         <v>2</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" t="s" s="172">
-        <v>77</v>
-      </c>
-      <c r="D6" s="173">
+      <c r="B6" s="157"/>
+      <c r="C6" t="s" s="170">
+        <v>79</v>
+      </c>
+      <c r="D6" s="171">
         <f>HEX2DEC(B6)</f>
         <v>0</v>
       </c>
-      <c r="E6" t="s" s="174">
-        <v>78</v>
+      <c r="E6" t="s" s="172">
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="159">
+      <c r="A7" s="157">
         <v>4</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" t="s" s="172">
-        <v>79</v>
-      </c>
-      <c r="D7" s="173">
+      <c r="B7" s="157"/>
+      <c r="C7" t="s" s="170">
+        <v>81</v>
+      </c>
+      <c r="D7" s="171">
         <f>HEX2DEC(B7)</f>
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="174">
-        <v>80</v>
+      <c r="E7" t="s" s="172">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="159">
+      <c r="A8" s="157">
         <v>8</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" t="s" s="172">
-        <v>81</v>
-      </c>
-      <c r="D8" s="173">
+      <c r="B8" s="157"/>
+      <c r="C8" t="s" s="170">
+        <v>83</v>
+      </c>
+      <c r="D8" s="171">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
-      <c r="E8" t="s" s="174">
-        <v>82</v>
+      <c r="E8" t="s" s="172">
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="159">
+      <c r="A9" s="157">
         <v>10</v>
       </c>
-      <c r="B9" s="159">
+      <c r="B9" s="157">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="172">
-        <v>83</v>
-      </c>
-      <c r="D9" s="173">
+      <c r="C9" t="s" s="170">
+        <v>85</v>
+      </c>
+      <c r="D9" s="171">
         <f>HEX2DEC(B9)</f>
         <v>16</v>
       </c>
-      <c r="E9" t="s" s="174">
-        <v>84</v>
+      <c r="E9" t="s" s="172">
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="159">
+      <c r="A10" s="157">
         <v>20</v>
       </c>
-      <c r="B10" s="159"/>
-      <c r="C10" t="s" s="172">
-        <v>85</v>
-      </c>
-      <c r="D10" s="173">
+      <c r="B10" s="157"/>
+      <c r="C10" t="s" s="170">
+        <v>87</v>
+      </c>
+      <c r="D10" s="171">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="174">
-        <v>86</v>
+      <c r="E10" t="s" s="172">
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="159">
+      <c r="A11" s="157">
         <v>40</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" t="s" s="172">
-        <v>87</v>
-      </c>
-      <c r="D11" s="173">
+      <c r="B11" s="157"/>
+      <c r="C11" t="s" s="170">
+        <v>89</v>
+      </c>
+      <c r="D11" s="171">
         <f>HEX2DEC(B11)</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="174">
-        <v>88</v>
+      <c r="E11" t="s" s="172">
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="159">
+      <c r="A12" s="157">
         <v>80</v>
       </c>
-      <c r="B12" s="159">
+      <c r="B12" s="157">
         <v>80</v>
       </c>
-      <c r="C12" t="s" s="172">
-        <v>89</v>
-      </c>
-      <c r="D12" s="173">
+      <c r="C12" t="s" s="170">
+        <v>91</v>
+      </c>
+      <c r="D12" s="171">
         <f>HEX2DEC(B12)</f>
         <v>128</v>
       </c>
-      <c r="E12" t="s" s="174">
-        <v>90</v>
+      <c r="E12" t="s" s="172">
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="155"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="175"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="173"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" s="155"/>
-      <c r="B14" s="159"/>
-      <c r="C14" t="s" s="163">
-        <v>91</v>
-      </c>
-      <c r="D14" s="176">
+      <c r="A14" s="153"/>
+      <c r="B14" s="157"/>
+      <c r="C14" t="s" s="161">
+        <v>93</v>
+      </c>
+      <c r="D14" s="174">
         <f>SUM(D5:D12)</f>
         <v>145</v>
       </c>
-      <c r="E14" s="177"/>
+      <c r="E14" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7744,116 +7899,116 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.6719" style="178" customWidth="1"/>
-    <col min="2" max="2" width="7.04688" style="178" customWidth="1"/>
-    <col min="3" max="3" width="40.1719" style="178" customWidth="1"/>
-    <col min="4" max="4" width="8.07031" style="178" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="178" customWidth="1"/>
+    <col min="1" max="1" width="10.6719" style="176" customWidth="1"/>
+    <col min="2" max="2" width="7.04688" style="176" customWidth="1"/>
+    <col min="3" max="3" width="40.1719" style="176" customWidth="1"/>
+    <col min="4" max="4" width="8.07031" style="176" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="176" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="166"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="179">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s" s="179">
+      <c r="A3" t="s" s="177">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s" s="177">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="170">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s" s="170">
+      <c r="C3" t="s" s="168">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s" s="168">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="156"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="156"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="154"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="38">
+      <c r="A5" s="39">
         <v>1</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" t="s" s="172">
-        <v>94</v>
-      </c>
-      <c r="D5" s="173">
+      <c r="B5" s="39"/>
+      <c r="C5" t="s" s="170">
+        <v>96</v>
+      </c>
+      <c r="D5" s="171">
         <f>HEX2DEC(B5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="38">
+      <c r="A6" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="172">
-        <v>95</v>
-      </c>
-      <c r="D6" s="173">
+      <c r="C6" t="s" s="170">
+        <v>97</v>
+      </c>
+      <c r="D6" s="171">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="38">
+      <c r="A7" s="39">
         <v>4</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="172">
-        <v>96</v>
-      </c>
-      <c r="D7" s="173">
+      <c r="C7" t="s" s="170">
+        <v>98</v>
+      </c>
+      <c r="D7" s="171">
         <f>HEX2DEC(B7)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="38">
+      <c r="A8" s="39">
         <v>8</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" t="s" s="172">
-        <v>97</v>
-      </c>
-      <c r="D8" s="173">
+      <c r="B8" s="39"/>
+      <c r="C8" t="s" s="170">
+        <v>99</v>
+      </c>
+      <c r="D8" s="171">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="156"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="154"/>
     </row>
     <row r="10" ht="17.65" customHeight="1">
-      <c r="A10" s="156"/>
-      <c r="B10" s="38"/>
-      <c r="C10" t="s" s="163">
-        <v>98</v>
-      </c>
-      <c r="D10" s="176">
+      <c r="A10" s="154"/>
+      <c r="B10" s="39"/>
+      <c r="C10" t="s" s="161">
+        <v>100</v>
+      </c>
+      <c r="D10" s="174">
         <f>SUM(D5:D8)</f>
         <v>6</v>
       </c>

--- a/10. Calculators/OpenCoreCalcs.xlsx
+++ b/10. Calculators/OpenCoreCalcs.xlsx
@@ -6,15 +6,16 @@
   </bookViews>
   <sheets>
     <sheet name="csr-active-config - CSR-Active-" sheetId="1" r:id="rId4"/>
-    <sheet name="ScanPolicy - ScanPolicy Calcula" sheetId="2" r:id="rId5"/>
-    <sheet name="PickerAttributes - PickerAttrib" sheetId="3" r:id="rId6"/>
+    <sheet name="PickerAttributes - PickerAttrib" sheetId="2" r:id="rId5"/>
+    <sheet name="ScanPolicy - ScanPolicy Calcula" sheetId="3" r:id="rId6"/>
     <sheet name="Expose Sensitive Data - Sensiti" sheetId="4" r:id="rId7"/>
+    <sheet name="Logging Targets - Logging Targe" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>CSR-Active-Config Calculator for disabling System Integrity Protection in macOS 10.11 to 12 (OC 0.7.4+)</t>
   </si>
@@ -196,12 +197,81 @@
     <t>Recommended</t>
   </si>
   <si>
+    <t>PickerAttributes Calculator (OC 0.7.4+)</t>
+  </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
+  <si>
+    <t>PARAMETER</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>OC_ATTR_USE_VOLUME_ICON</t>
+  </si>
+  <si>
+    <t>Provides custom icons for boot entries</t>
+  </si>
+  <si>
+    <t>OC_ATTR_USE_DISK_LABEL_FILE</t>
+  </si>
+  <si>
+    <t>Provides custom pre-rendered titles for boot entries</t>
+  </si>
+  <si>
+    <t>OC_ATTR_USE_GENERIC_LABEL_IMAGE</t>
+  </si>
+  <si>
+    <t>Provides predefined label images for boot entries without custom entries</t>
+  </si>
+  <si>
+    <t>OC_ATTR_HIDE_THEMED_ICONS</t>
+  </si>
+  <si>
+    <t>Prefers builtin icons over custom ones for certain icon categories to match the theme style</t>
+  </si>
+  <si>
+    <t>OC_ATTR_USE_POINTER_CONTROL</t>
+  </si>
+  <si>
+    <t>Enables pointer control in the Boot Picker if available</t>
+  </si>
+  <si>
+    <t>OC_ATTR_SHOW_DEBUG_DISPLAY</t>
+  </si>
+  <si>
+    <t>Enables display of additional timing and debug information, in Builtin Boot Picker (DEBUG and NOOPT builds only)</t>
+  </si>
+  <si>
+    <t>OC_ATTR_USE_MINIMAL_UI</t>
+  </si>
+  <si>
+    <t>Use minimal UI display, no Shutdown or Restart buttons, affects OpenCanopy and builtin picker.</t>
+  </si>
+  <si>
+    <t>OC_ATTR_USE_FLAVOUR_ICON</t>
+  </si>
+  <si>
+    <t>Provides flexible boot entry content description, suitable for picking the best media across different content sets</t>
+  </si>
+  <si>
+    <t>PickerAttributes:</t>
+  </si>
+  <si>
+    <t>Presets</t>
+  </si>
+  <si>
+    <t>Sample.plist Default</t>
+  </si>
+  <si>
+    <t>To enable Mouse, Custom Themes and Icons</t>
+  </si>
+  <si>
     <t>ScanPolicy Calculator (OC 0.7.4+)</t>
   </si>
   <si>
-    <t>STORAGE</t>
-  </si>
-  <si>
     <t>FEATURE</t>
   </si>
   <si>
@@ -262,70 +332,13 @@
     <t>ScanPolicy:</t>
   </si>
   <si>
-    <t>PickerAttributes Calculator (OC 0.7.4+)</t>
-  </si>
-  <si>
-    <t>PARAMETER</t>
-  </si>
-  <si>
-    <t>EXPLANATION*</t>
-  </si>
-  <si>
-    <t>OC_ATTR_USE_VOLUME_ICON</t>
-  </si>
-  <si>
-    <t>Provides custom icons for boot entries</t>
-  </si>
-  <si>
-    <t>OC_ATTR_USE_DISK_LABEL_FILE</t>
-  </si>
-  <si>
-    <t>Provides custom pre-rendered titles for boot entries</t>
-  </si>
-  <si>
-    <t>OC_ATTR_USE_GENERIC_LABEL_IMAGE</t>
-  </si>
-  <si>
-    <t>Provides predefined label images for boot entries without custom entries</t>
-  </si>
-  <si>
-    <t>OC_ATTR_HIDE_THEMED_ICONS</t>
-  </si>
-  <si>
-    <t>Prefers builtin icons over custom ones for certain icon categories to match the theme style</t>
-  </si>
-  <si>
-    <t>OC_ATTR_USE_POINTER_CONTROL</t>
-  </si>
-  <si>
-    <t>Enables pointer control in the Boot Picker if available</t>
-  </si>
-  <si>
-    <t>OC_ATTR_SHOW_DEBUG_DISPLAY</t>
-  </si>
-  <si>
-    <t>Enables display of additional timing and debug information, in Builtin Boot Picker (DEBUG and NOOPT builds only)</t>
-  </si>
-  <si>
-    <t>OC_ATTR_USE_MINIMAL_UI</t>
-  </si>
-  <si>
-    <t>Use minimal UI display, no Shutdown or Restart buttons, affects OpenCanopy and builtin picker.</t>
-  </si>
-  <si>
-    <t>OC_ATTR_USE_FLAVOUR_ICON</t>
-  </si>
-  <si>
-    <t>Provides flexible boot entry content description, suitable for picking the best media across different content sets</t>
-  </si>
-  <si>
-    <t>PickerAttributes:</t>
+    <t>Scan everything</t>
   </si>
   <si>
     <t>Sensitive Data Exposure Bitmask Calculator (OC 0.7.4+)</t>
   </si>
   <si>
-    <t>PARAMETER*</t>
+    <t>EXPOSED DATA</t>
   </si>
   <si>
     <t>Expose printable booter path as an UEFI variable</t>
@@ -341,6 +354,36 @@
   </si>
   <si>
     <t>ExposeSensitiveData</t>
+  </si>
+  <si>
+    <t>Logging Targets Calculator (OC 0.7.4+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable logging, otherwise all log is discarded. </t>
+  </si>
+  <si>
+    <t>Enable basic console (onscreen) logging</t>
+  </si>
+  <si>
+    <t>Enable logging to Data Hub</t>
+  </si>
+  <si>
+    <t>Enable serial port logging.</t>
+  </si>
+  <si>
+    <t>Enable UEFI variable logging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable non-volatile UEFI variable logging. </t>
+  </si>
+  <si>
+    <t>Enable logging to file.</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For debugging OC boot issues </t>
   </si>
 </sst>
 </file>
@@ -352,7 +395,7 @@
     <numFmt numFmtId="59" formatCode="########"/>
     <numFmt numFmtId="60" formatCode="0E+00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -386,6 +429,11 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="12"/>
       <color indexed="13"/>
@@ -398,7 +446,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
@@ -452,20 +500,41 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="18"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Helvetica Neue Medium"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="18"/>
-      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="6">
@@ -500,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="106">
+  <borders count="123">
     <border>
       <left/>
       <right/>
@@ -2040,31 +2109,226 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </left>
       <right style="hair">
+        <color indexed="9"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
+      <bottom style="dotted">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom style="hair">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </left>
       <right style="hair">
-        <color indexed="9"/>
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="12"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
       </right>
       <top style="hair">
-        <color indexed="9"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2078,7 +2342,67 @@
       <top style="hair">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="dotted">
         <color indexed="12"/>
       </bottom>
       <diagonal/>
@@ -2089,7 +2413,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2210,7 +2534,7 @@
     <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="1" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2222,19 +2546,19 @@
     <xf numFmtId="0" fontId="1" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="7" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="1" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2285,7 +2609,7 @@
     <xf numFmtId="59" fontId="1" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2318,13 +2642,13 @@
     <xf numFmtId="0" fontId="1" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="60" fontId="1" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2408,7 +2732,7 @@
     <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2435,7 +2759,7 @@
     <xf numFmtId="0" fontId="1" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2450,19 +2774,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="92" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="93" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="93" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2471,7 +2795,7 @@
     <xf numFmtId="0" fontId="0" borderId="95" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2480,13 +2804,13 @@
     <xf numFmtId="0" fontId="0" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="97" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="97" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2501,19 +2825,19 @@
     <xf numFmtId="0" fontId="0" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="99" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="99" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="100" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2528,26 +2852,131 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="1" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="106" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="107" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="108" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="109" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" borderId="110" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="111" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="112" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="113" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="114" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" borderId="115" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="111" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="1" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="17" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="116" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="116" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
@@ -2555,8 +2984,8 @@
     <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="17" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2564,64 +2993,124 @@
     <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="106" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="117" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="109" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="109" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="116" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="1" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="118" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="119" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="17" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="17" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="17" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="17" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="121" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="122" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="122" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="122" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="109" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2663,13 +3152,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>52520</xdr:rowOff>
+      <xdr:rowOff>53473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23772</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>33319</xdr:rowOff>
+      <xdr:rowOff>19667</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2678,18 +3167,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-12700" y="6536505"/>
-          <a:ext cx="6272173" cy="2932280"/>
+          <a:off x="-12700" y="6537458"/>
+          <a:ext cx="6272173" cy="2917675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -4384,24 +4870,346 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>96278</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>386079</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="USAGE:…"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-19050" y="3651917"/>
+          <a:ext cx="4818380" cy="1649606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>USAGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Copy the corresponding values for features you want to enable from »Storage« to »HEX« to add them to the PickerAtrributes.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Copy the resulting PickerAtrributes value in the green box to your config.plist, save and reboot (Default value: 0)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>*For further information please refer to the Configuration.pdf included in the OpenCore package.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61202</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28141</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="USEAGE:…"/>
+        <xdr:cNvPr id="7" name="USAGE:…"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="5595378"/>
-          <a:ext cx="5143501" cy="1019025"/>
+          <a:off x="-19050" y="6180807"/>
+          <a:ext cx="5143501" cy="1208890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4461,7 +5269,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>USEAGE</a:t>
+            <a:t>USAGE</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -4474,8 +5282,20 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>: </a:t>
+            <a:t>:</a:t>
           </a:r>
+          <a:br>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+          </a:br>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -4586,30 +5406,30 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60672</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>43179</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>117565</xdr:rowOff>
+      <xdr:colOff>46235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110821</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="USEAGE:…"/>
+        <xdr:cNvPr id="9" name="USAGE:…"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="3036917"/>
-          <a:ext cx="4818380" cy="1532634"/>
+          <a:off x="-19050" y="2176098"/>
+          <a:ext cx="5062736" cy="1751709"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4669,7 +5489,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>USEAGE</a:t>
+            <a:t>USAGE</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -4682,7 +5502,70 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>: </a:t>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Copy the corresponding values for functions you want to enable from the »Storage« column to the »HEX« column to add them to the Data Exposure Bitmask.</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -4733,7 +5616,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Copy the corresponding values for features you want to enable from »Storage« to »HEX« to add them to the PickerAtrributes.</a:t>
+            <a:t>Copy the resulting ExposeSensitiveData value in the green box to your config.plist, save and reboot. (Default: 6)</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -4747,7 +5630,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4758,9 +5641,9 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buClrTx/>
-            <a:buSzPct val="100000"/>
+            <a:buSzTx/>
             <a:buFontTx/>
-            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:buNone/>
             <a:tabLst/>
             <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
@@ -4773,19 +5656,6 @@
               <a:sym typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Copy the resulting PickerAtrributes value in the green box to your config.plist, save and reboot (Default value: 0)</a:t>
-          </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -4824,44 +5694,6 @@
               <a:sym typeface="Helvetica Neue Medium"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:defRPr>
-          </a:pPr>
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
               <a:solidFill>
@@ -4883,30 +5715,30 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>58056</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>411479</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144159</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>497125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136737</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="USEAGE:…"/>
+        <xdr:cNvPr id="11" name="USAGE:…"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="2188481"/>
-          <a:ext cx="4818380" cy="1561844"/>
+          <a:off x="-19050" y="3566523"/>
+          <a:ext cx="5234226" cy="1778485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4966,7 +5798,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>USEAGE</a:t>
+            <a:t>USAGE</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -4979,7 +5811,70 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>: </a:t>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Copy the corresponding values for things you want to log from »Hex Storage« to the »HEX« column to add them to the Logging Target bitmask.</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -5030,58 +5925,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Copy the corresponding values for features you want to enable from »Storage« to »HEX« to add them to the Data Exposure Bitmask.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzPct val="100000"/>
-            <a:buFontTx/>
-            <a:buAutoNum type="arabicPeriod" startAt="1"/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Copy the resulting ExposeSensitiveData value in the green box to your config.plist, save and reboot. (Default value: 6)</a:t>
+            <a:t>Copy the resulting »Target« value in the green box to your config.plist (Misc &gt; Debug &gt; Target).</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -5133,7 +5977,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5148,29 +5992,42 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>*For further information please refer to the Configuration.pdf included in the OpenCore package.</a:t>
+            <a:t>NOTE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>: Certain features require additional Terminal commands. Please refer to the Configuration.pdf included in the OpenCore package for further details</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7332,16 +8189,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.8516" style="145" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="145" customWidth="1"/>
-    <col min="4" max="4" width="11.8516" style="145" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="145" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="145" customWidth="1"/>
+    <col min="2" max="2" width="6.79688" style="145" customWidth="1"/>
+    <col min="3" max="3" width="33" style="145" customWidth="1"/>
+    <col min="4" max="4" width="7.57031" style="145" customWidth="1"/>
+    <col min="5" max="5" width="88.8906" style="145" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="145" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -7351,12 +8210,14 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="16.15" customHeight="1">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="16.65" customHeight="1">
       <c r="A2" s="146"/>
       <c r="B2" s="147"/>
       <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="149"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
       <c r="A3" t="s" s="150">
@@ -7368,298 +8229,210 @@
       <c r="C3" t="s" s="152">
         <v>54</v>
       </c>
-      <c r="D3" t="s" s="151">
+      <c r="D3" t="s" s="152">
         <v>19</v>
+      </c>
+      <c r="E3" t="s" s="152">
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" s="153"/>
       <c r="B4" s="154"/>
       <c r="C4" s="155"/>
-      <c r="D4" s="156"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="156"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
       <c r="A5" s="157">
         <v>1</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="157">
         <v>1</v>
       </c>
       <c r="C5" t="s" s="158">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="159">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
+      <c r="E5" t="s" s="160">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
       <c r="A6" s="157">
         <v>2</v>
       </c>
-      <c r="B6" s="39">
-        <v>2</v>
-      </c>
+      <c r="B6" s="157"/>
       <c r="C6" t="s" s="158">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="159">
         <f>HEX2DEC(B6)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s" s="160">
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="157"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="156"/>
+      <c r="A7" s="157">
+        <v>4</v>
+      </c>
+      <c r="B7" s="157"/>
+      <c r="C7" t="s" s="158">
+        <v>60</v>
+      </c>
+      <c r="D7" s="159">
+        <f>HEX2DEC(B7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s" s="160">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
       <c r="A8" s="157">
-        <v>100</v>
-      </c>
-      <c r="B8" s="39">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B8" s="157"/>
       <c r="C8" t="s" s="158">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D8" s="159">
         <f>HEX2DEC(B8)</f>
-        <v>256</v>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s" s="160">
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
       <c r="A9" s="157">
-        <v>200</v>
-      </c>
-      <c r="B9" s="39">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="157">
+        <v>10</v>
       </c>
       <c r="C9" t="s" s="158">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D9" s="159">
         <f>HEX2DEC(B9)</f>
-        <v>512</v>
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="160">
+        <v>65</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
       <c r="A10" s="157">
-        <v>400</v>
-      </c>
-      <c r="B10" s="39"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="157"/>
       <c r="C10" t="s" s="158">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D10" s="159">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
+      <c r="E10" t="s" s="160">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
       <c r="A11" s="157">
-        <v>800</v>
-      </c>
-      <c r="B11" s="39">
-        <v>800</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B11" s="157"/>
       <c r="C11" t="s" s="158">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D11" s="159">
         <f>HEX2DEC(B11)</f>
-        <v>2048</v>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s" s="160">
+        <v>69</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
       <c r="A12" s="157">
-        <v>1000</v>
-      </c>
-      <c r="B12" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="B12" s="157">
+        <v>80</v>
+      </c>
       <c r="C12" t="s" s="158">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D12" s="159">
         <f>HEX2DEC(B12)</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="E12" t="s" s="160">
+        <v>71</v>
       </c>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="157">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" t="s" s="158">
-        <v>62</v>
-      </c>
-      <c r="D13" s="159">
-        <f>HEX2DEC(B13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="16.65" customHeight="1">
-      <c r="A14" s="157">
-        <v>4000</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" t="s" s="158">
-        <v>63</v>
-      </c>
-      <c r="D14" s="159">
-        <f>HEX2DEC(B14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="16.65" customHeight="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="156"/>
-    </row>
-    <row r="16" ht="16.65" customHeight="1">
-      <c r="A16" s="157">
-        <v>10000</v>
-      </c>
-      <c r="B16" s="39">
-        <v>10000</v>
-      </c>
-      <c r="C16" t="s" s="158">
-        <v>64</v>
-      </c>
-      <c r="D16" s="159">
-        <f>HEX2DEC(B16)</f>
-        <v>65536</v>
-      </c>
+      <c r="A13" s="153"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="156"/>
+    </row>
+    <row r="14" ht="17.65" customHeight="1">
+      <c r="A14" s="161"/>
+      <c r="B14" s="162"/>
+      <c r="C14" t="s" s="163">
+        <v>72</v>
+      </c>
+      <c r="D14" s="164">
+        <f>SUM(D5:D12)</f>
+        <v>145</v>
+      </c>
+      <c r="E14" s="165"/>
+    </row>
+    <row r="15" ht="17.65" customHeight="1">
+      <c r="A15" s="166"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
+    </row>
+    <row r="16" ht="14.7" customHeight="1">
+      <c r="A16" t="s" s="171">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s" s="172">
+        <v>74</v>
+      </c>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174">
+        <v>17</v>
+      </c>
+      <c r="E16" s="175"/>
     </row>
     <row r="17" ht="16.65" customHeight="1">
-      <c r="A17" s="157">
-        <v>20000</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" t="s" s="158">
-        <v>65</v>
-      </c>
-      <c r="D17" s="159">
-        <f>HEX2DEC(B17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="16.65" customHeight="1">
-      <c r="A18" s="157">
-        <v>40000</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" t="s" s="158">
-        <v>66</v>
-      </c>
-      <c r="D18" s="159">
-        <f>HEX2DEC(B18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="157">
-        <v>80000</v>
-      </c>
-      <c r="B19" s="39">
-        <v>80000</v>
-      </c>
-      <c r="C19" t="s" s="158">
-        <v>67</v>
-      </c>
-      <c r="D19" s="159">
-        <f>HEX2DEC(B19)</f>
-        <v>524288</v>
-      </c>
-    </row>
-    <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="157">
-        <v>100000</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" t="s" s="158">
-        <v>68</v>
-      </c>
-      <c r="D20" s="159">
-        <f>HEX2DEC(B20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" s="157">
-        <v>200000</v>
-      </c>
-      <c r="B21" s="39">
-        <v>200000</v>
-      </c>
-      <c r="C21" t="s" s="158">
-        <v>69</v>
-      </c>
-      <c r="D21" s="159">
-        <f>HEX2DEC(B21)</f>
-        <v>2097152</v>
-      </c>
-    </row>
-    <row r="22" ht="16.65" customHeight="1">
-      <c r="A22" s="157">
-        <v>400000</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" t="s" s="158">
-        <v>70</v>
-      </c>
-      <c r="D22" s="159">
-        <f>HEX2DEC(B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="16.65" customHeight="1">
-      <c r="A23" s="157">
-        <v>800000</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" t="s" s="158">
-        <v>71</v>
-      </c>
-      <c r="D23" s="159">
-        <f>HEX2DEC(B23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="157">
-        <v>1000000</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" t="s" s="158">
-        <v>72</v>
-      </c>
-      <c r="D24" s="159">
-        <f>HEX2DEC(B24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="16.65" customHeight="1">
-      <c r="A25" s="153"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-    </row>
-    <row r="26" ht="16.65" customHeight="1">
-      <c r="A26" s="153"/>
-      <c r="B26" s="39"/>
-      <c r="C26" t="s" s="161">
-        <v>73</v>
-      </c>
-      <c r="D26" s="162">
-        <f>SUM(D5:D24)</f>
-        <v>2689795</v>
-      </c>
+      <c r="A17" s="176"/>
+      <c r="B17" t="s" s="177">
+        <v>75</v>
+      </c>
+      <c r="C17" s="178"/>
+      <c r="D17" s="179">
+        <v>145</v>
+      </c>
+      <c r="E17" s="180"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7672,215 +8445,365 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.8516" style="163" customWidth="1"/>
-    <col min="3" max="3" width="33" style="163" customWidth="1"/>
-    <col min="4" max="4" width="8.07031" style="163" customWidth="1"/>
-    <col min="5" max="5" width="103.352" style="163" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="163" customWidth="1"/>
+    <col min="1" max="2" width="10.8516" style="181" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="181" customWidth="1"/>
+    <col min="4" max="4" width="11.8516" style="181" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="181" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="164"/>
+    </row>
+    <row r="2" ht="16.15" customHeight="1">
+      <c r="A2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="185"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="167">
+      <c r="A3" t="s" s="186">
         <v>53</v>
       </c>
-      <c r="B3" t="s" s="168">
+      <c r="B3" t="s" s="187">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="168">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s" s="168">
+      <c r="C3" t="s" s="187">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s" s="187">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="168">
-        <v>76</v>
-      </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="153"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="153"/>
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="191"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="157">
+      <c r="A5" s="192">
         <v>1</v>
       </c>
-      <c r="B5" s="157">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="170">
-        <v>77</v>
-      </c>
-      <c r="D5" s="171">
+      <c r="C5" t="s" s="193">
+        <v>78</v>
+      </c>
+      <c r="D5" s="194">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="172">
-        <v>78</v>
-      </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="157">
+      <c r="A6" s="192">
         <v>2</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" t="s" s="170">
+      <c r="B6" s="39">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s" s="193">
         <v>79</v>
       </c>
-      <c r="D6" s="171">
+      <c r="D6" s="194">
         <f>HEX2DEC(B6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" t="s" s="172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="16.65" customHeight="1">
+      <c r="A7" s="192"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="191"/>
+    </row>
+    <row r="8" ht="16.65" customHeight="1">
+      <c r="A8" s="192">
+        <v>100</v>
+      </c>
+      <c r="B8" s="39">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s" s="193">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="157">
-        <v>4</v>
-      </c>
-      <c r="B7" s="157"/>
-      <c r="C7" t="s" s="170">
+      <c r="D8" s="194">
+        <f>HEX2DEC(B8)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" ht="16.65" customHeight="1">
+      <c r="A9" s="192">
+        <v>200</v>
+      </c>
+      <c r="B9" s="39">
+        <v>200</v>
+      </c>
+      <c r="C9" t="s" s="193">
         <v>81</v>
       </c>
-      <c r="D7" s="171">
-        <f>HEX2DEC(B7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" t="s" s="172">
+      <c r="D9" s="194">
+        <f>HEX2DEC(B9)</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" ht="16.65" customHeight="1">
+      <c r="A10" s="192">
+        <v>400</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" t="s" s="193">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="157">
-        <v>8</v>
-      </c>
-      <c r="B8" s="157"/>
-      <c r="C8" t="s" s="170">
-        <v>83</v>
-      </c>
-      <c r="D8" s="171">
-        <f>HEX2DEC(B8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" t="s" s="172">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="157">
-        <v>10</v>
-      </c>
-      <c r="B9" s="157">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s" s="170">
-        <v>85</v>
-      </c>
-      <c r="D9" s="171">
-        <f>HEX2DEC(B9)</f>
-        <v>16</v>
-      </c>
-      <c r="E9" t="s" s="172">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="157">
-        <v>20</v>
-      </c>
-      <c r="B10" s="157"/>
-      <c r="C10" t="s" s="170">
-        <v>87</v>
-      </c>
-      <c r="D10" s="171">
+      <c r="D10" s="194">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="172">
+    </row>
+    <row r="11" ht="16.65" customHeight="1">
+      <c r="A11" s="192">
+        <v>800</v>
+      </c>
+      <c r="B11" s="39">
+        <v>800</v>
+      </c>
+      <c r="C11" t="s" s="193">
+        <v>83</v>
+      </c>
+      <c r="D11" s="194">
+        <f>HEX2DEC(B11)</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="12" ht="16.65" customHeight="1">
+      <c r="A12" s="192">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" t="s" s="193">
+        <v>84</v>
+      </c>
+      <c r="D12" s="194">
+        <f>HEX2DEC(B12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="16.65" customHeight="1">
+      <c r="A13" s="192">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" t="s" s="193">
+        <v>85</v>
+      </c>
+      <c r="D13" s="194">
+        <f>HEX2DEC(B13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="16.65" customHeight="1">
+      <c r="A14" s="192">
+        <v>4000</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" t="s" s="193">
+        <v>86</v>
+      </c>
+      <c r="D14" s="194">
+        <f>HEX2DEC(B14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="16.65" customHeight="1">
+      <c r="A15" s="192"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="191"/>
+    </row>
+    <row r="16" ht="16.65" customHeight="1">
+      <c r="A16" s="192">
+        <v>10000</v>
+      </c>
+      <c r="B16" s="39">
+        <v>10000</v>
+      </c>
+      <c r="C16" t="s" s="193">
+        <v>87</v>
+      </c>
+      <c r="D16" s="194">
+        <f>HEX2DEC(B16)</f>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="17" ht="16.65" customHeight="1">
+      <c r="A17" s="192">
+        <v>20000</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" t="s" s="193">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="157">
-        <v>40</v>
-      </c>
-      <c r="B11" s="157"/>
-      <c r="C11" t="s" s="170">
+      <c r="D17" s="194">
+        <f>HEX2DEC(B17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="16.65" customHeight="1">
+      <c r="A18" s="192">
+        <v>40000</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" t="s" s="193">
         <v>89</v>
       </c>
-      <c r="D11" s="171">
-        <f>HEX2DEC(B11)</f>
+      <c r="D18" s="194">
+        <f>HEX2DEC(B18)</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="172">
+    </row>
+    <row r="19" ht="16.65" customHeight="1">
+      <c r="A19" s="192">
+        <v>80000</v>
+      </c>
+      <c r="B19" s="39">
+        <v>80000</v>
+      </c>
+      <c r="C19" t="s" s="193">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="157">
-        <v>80</v>
-      </c>
-      <c r="B12" s="157">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s" s="170">
+      <c r="D19" s="194">
+        <f>HEX2DEC(B19)</f>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="20" ht="16.65" customHeight="1">
+      <c r="A20" s="192">
+        <v>100000</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" t="s" s="193">
         <v>91</v>
       </c>
-      <c r="D12" s="171">
-        <f>HEX2DEC(B12)</f>
-        <v>128</v>
-      </c>
-      <c r="E12" t="s" s="172">
+      <c r="D20" s="194">
+        <f>HEX2DEC(B20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="16.65" customHeight="1">
+      <c r="A21" s="192">
+        <v>200000</v>
+      </c>
+      <c r="B21" s="39">
+        <v>200000</v>
+      </c>
+      <c r="C21" t="s" s="193">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="153"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="173"/>
-    </row>
-    <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" s="153"/>
-      <c r="B14" s="157"/>
-      <c r="C14" t="s" s="161">
+      <c r="D21" s="194">
+        <f>HEX2DEC(B21)</f>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="22" ht="16.65" customHeight="1">
+      <c r="A22" s="192">
+        <v>400000</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" t="s" s="193">
         <v>93</v>
       </c>
-      <c r="D14" s="174">
-        <f>SUM(D5:D12)</f>
-        <v>145</v>
-      </c>
-      <c r="E14" s="175"/>
+      <c r="D22" s="194">
+        <f>HEX2DEC(B22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="16.65" customHeight="1">
+      <c r="A23" s="192">
+        <v>800000</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" t="s" s="193">
+        <v>94</v>
+      </c>
+      <c r="D23" s="194">
+        <f>HEX2DEC(B23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" s="192">
+        <v>1000000</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" t="s" s="193">
+        <v>95</v>
+      </c>
+      <c r="D24" s="194">
+        <f>HEX2DEC(B24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="16.65" customHeight="1">
+      <c r="A25" s="188"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="191"/>
+    </row>
+    <row r="26" ht="17.65" customHeight="1">
+      <c r="A26" s="196"/>
+      <c r="B26" s="197"/>
+      <c r="C26" t="s" s="163">
+        <v>96</v>
+      </c>
+      <c r="D26" s="164">
+        <f>SUM(D5:D24)</f>
+        <v>2689795</v>
+      </c>
+    </row>
+    <row r="27" ht="16.65" customHeight="1">
+      <c r="A27" s="198"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="200"/>
+    </row>
+    <row r="28" ht="14.7" customHeight="1">
+      <c r="A28" t="s" s="201">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s" s="202">
+        <v>74</v>
+      </c>
+      <c r="C28" s="173"/>
+      <c r="D28" s="203">
+        <v>17760515</v>
+      </c>
+    </row>
+    <row r="29" ht="14.7" customHeight="1">
+      <c r="A29" s="204"/>
+      <c r="B29" t="s" s="205">
+        <v>97</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="206">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7899,118 +8822,120 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.6719" style="176" customWidth="1"/>
-    <col min="2" max="2" width="7.04688" style="176" customWidth="1"/>
-    <col min="3" max="3" width="40.1719" style="176" customWidth="1"/>
-    <col min="4" max="4" width="8.07031" style="176" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="176" customWidth="1"/>
+    <col min="1" max="1" width="10.6719" style="207" customWidth="1"/>
+    <col min="2" max="2" width="7.04688" style="207" customWidth="1"/>
+    <col min="3" max="3" width="40.1719" style="207" customWidth="1"/>
+    <col min="4" max="4" width="8.07031" style="207" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="207" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="166"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="147"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="177">
+      <c r="A3" t="s" s="151">
         <v>53</v>
       </c>
-      <c r="B3" t="s" s="177">
+      <c r="B3" t="s" s="151">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="168">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s" s="168">
+      <c r="C3" t="s" s="152">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s" s="152">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" s="154"/>
       <c r="B4" s="154"/>
-      <c r="C4" s="169"/>
+      <c r="C4" s="155"/>
       <c r="D4" s="154"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="39">
+      <c r="A5" s="157">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" t="s" s="170">
-        <v>96</v>
-      </c>
-      <c r="D5" s="171">
+      <c r="B5" s="157">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="158">
+        <v>100</v>
+      </c>
+      <c r="D5" s="159">
         <f>HEX2DEC(B5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="39">
+      <c r="A6" s="157">
         <v>2</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="157">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="170">
-        <v>97</v>
-      </c>
-      <c r="D6" s="171">
+      <c r="C6" t="s" s="158">
+        <v>101</v>
+      </c>
+      <c r="D6" s="159">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="39">
+      <c r="A7" s="157">
         <v>4</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="157">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="170">
-        <v>98</v>
-      </c>
-      <c r="D7" s="171">
+      <c r="C7" t="s" s="158">
+        <v>102</v>
+      </c>
+      <c r="D7" s="159">
         <f>HEX2DEC(B7)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="39">
+      <c r="A8" s="157">
         <v>8</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" t="s" s="170">
-        <v>99</v>
-      </c>
-      <c r="D8" s="171">
+      <c r="B8" s="157"/>
+      <c r="C8" t="s" s="158">
+        <v>103</v>
+      </c>
+      <c r="D8" s="159">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
       <c r="A9" s="154"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="169"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="154"/>
     </row>
     <row r="10" ht="17.65" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="39"/>
-      <c r="C10" t="s" s="161">
-        <v>100</v>
-      </c>
-      <c r="D10" s="174">
+      <c r="B10" s="157"/>
+      <c r="C10" t="s" s="208">
+        <v>104</v>
+      </c>
+      <c r="D10" s="209">
         <f>SUM(D5:D8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -8024,4 +8949,254 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="7.85156" style="210" customWidth="1"/>
+    <col min="2" max="2" width="10.3906" style="210" customWidth="1"/>
+    <col min="3" max="3" width="7.28125" style="210" customWidth="1"/>
+    <col min="4" max="4" width="36.6719" style="210" customWidth="1"/>
+    <col min="5" max="5" width="6.94531" style="210" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="210" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="16.65" customHeight="1">
+      <c r="A2" s="211"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="147"/>
+    </row>
+    <row r="3" ht="8.5" customHeight="1">
+      <c r="A3" t="s" s="152">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="213">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="152">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="152">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s" s="152">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="23.65" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="214"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="189"/>
+    </row>
+    <row r="6" ht="16.65" customHeight="1">
+      <c r="A6" s="215">
+        <v>0</v>
+      </c>
+      <c r="B6" s="157">
+        <v>1</v>
+      </c>
+      <c r="C6" s="157">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="158">
+        <v>106</v>
+      </c>
+      <c r="E6" s="159">
+        <f>HEX2DEC(C6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="16.65" customHeight="1">
+      <c r="A7" s="215">
+        <v>1</v>
+      </c>
+      <c r="B7" s="157">
+        <v>2</v>
+      </c>
+      <c r="C7" s="157">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="158">
+        <v>107</v>
+      </c>
+      <c r="E7" s="159">
+        <f>HEX2DEC(C7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="16.65" customHeight="1">
+      <c r="A8" s="215">
+        <v>2</v>
+      </c>
+      <c r="B8" s="157">
+        <v>4</v>
+      </c>
+      <c r="C8" s="157"/>
+      <c r="D8" t="s" s="158">
+        <v>108</v>
+      </c>
+      <c r="E8" s="159">
+        <f>HEX2DEC(C8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="16.65" customHeight="1">
+      <c r="A9" s="215">
+        <v>3</v>
+      </c>
+      <c r="B9" s="157">
+        <v>8</v>
+      </c>
+      <c r="C9" s="157"/>
+      <c r="D9" t="s" s="158">
+        <v>109</v>
+      </c>
+      <c r="E9" s="159">
+        <f>HEX2DEC(C9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="16.65" customHeight="1">
+      <c r="A10" s="215">
+        <v>4</v>
+      </c>
+      <c r="B10" s="157">
+        <v>10</v>
+      </c>
+      <c r="C10" s="157"/>
+      <c r="D10" t="s" s="158">
+        <v>110</v>
+      </c>
+      <c r="E10" s="159">
+        <f>HEX2DEC(C10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="16.65" customHeight="1">
+      <c r="A11" s="215">
+        <v>5</v>
+      </c>
+      <c r="B11" s="157">
+        <v>20</v>
+      </c>
+      <c r="C11" s="157"/>
+      <c r="D11" t="s" s="216">
+        <v>111</v>
+      </c>
+      <c r="E11" s="217">
+        <f>HEX2DEC(C11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="16.65" customHeight="1">
+      <c r="A12" s="215">
+        <v>6</v>
+      </c>
+      <c r="B12" s="157">
+        <v>40</v>
+      </c>
+      <c r="C12" s="157"/>
+      <c r="D12" t="s" s="158">
+        <v>112</v>
+      </c>
+      <c r="E12" s="159">
+        <f>HEX2DEC(C12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.7" customHeight="1">
+      <c r="A13" s="218"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="221"/>
+    </row>
+    <row r="14" ht="17.65" customHeight="1">
+      <c r="A14" s="222"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="223"/>
+      <c r="D14" t="s" s="224">
+        <v>113</v>
+      </c>
+      <c r="E14" s="225">
+        <f>SUM(E6:E12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="17.65" customHeight="1">
+      <c r="A15" s="226"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="229"/>
+    </row>
+    <row r="16" ht="14.7" customHeight="1">
+      <c r="A16" t="s" s="230">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s" s="231">
+        <v>74</v>
+      </c>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="14.7" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" t="s" s="232">
+        <v>114</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="206">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/10. Calculators/OpenCoreCalcs.xlsx
+++ b/10. Calculators/OpenCoreCalcs.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
-  <si>
-    <t>CSR-Active-Config Calculator for disabling System Integrity Protection in macOS 10.11 to 12 (OC 0.7.4+)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+  <si>
+    <t>CSR-Active-Config Calculator for macOS 10.11 to 12</t>
   </si>
   <si>
     <t>OC BootPicker</t>
@@ -140,13 +140,25 @@
     <t>RESULT</t>
   </si>
   <si>
-    <t>SUM (DEC)</t>
-  </si>
-  <si>
-    <t>CONVERTED to HEX  (Clover)</t>
-  </si>
-  <si>
-    <t>CONVERTED to HEX (OpenCore)</t>
+    <t>SUM (HEX | DEC)</t>
+  </si>
+  <si>
+    <t>0x26F</t>
+  </si>
+  <si>
+    <t>0x867</t>
+  </si>
+  <si>
+    <t>0x7FF</t>
+  </si>
+  <si>
+    <t>0x3FF</t>
+  </si>
+  <si>
+    <t>0x067</t>
+  </si>
+  <si>
+    <t>HEX (OpenCore)</t>
   </si>
   <si>
     <t>CSR-ACTIVE-CONFIG (REVERSED ORDER)</t>
@@ -194,7 +206,7 @@
     <t>FF 00 00 00</t>
   </si>
   <si>
-    <t>Recommended</t>
+    <t>RECOMMENDED</t>
   </si>
   <si>
     <t>PickerAttributes Calculator (OC 0.7.4+)</t>
@@ -260,76 +272,76 @@
     <t>PickerAttributes:</t>
   </si>
   <si>
+    <t>Sample.plist Default</t>
+  </si>
+  <si>
+    <t>To enable Mouse, Custom Themes and Icons</t>
+  </si>
+  <si>
+    <t>ScanPolicy Calculator (OC 0.7.4+)</t>
+  </si>
+  <si>
+    <t>FEATURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC_SCAN_FILE_SYSTEM_LOCK </t>
+  </si>
+  <si>
+    <t>OC_SCAN_DEVICE_LOCK</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_FS_APFS</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_FS_HFS</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_FS_ESP</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_FS_NTFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC_SCAN_ALLOW_FS_LINUX_ROOT </t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_FS_LINUX_DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC_SCAN_ALLOW_FS_XBOOTLDR </t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_DEVICE_SATA</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_DEVICE_SASEX</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_DEVICE_SCSI</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_DEVICE_NVME</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_DEVICE_ATAPI</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_DEVICE_USB</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_DEVICE_FIREWIRE</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_DEVICE_SDCARD</t>
+  </si>
+  <si>
+    <t>OC_SCAN_ALLOW_DEVICE_PCI</t>
+  </si>
+  <si>
+    <t>ScanPolicy:</t>
+  </si>
+  <si>
     <t>Presets</t>
-  </si>
-  <si>
-    <t>Sample.plist Default</t>
-  </si>
-  <si>
-    <t>To enable Mouse, Custom Themes and Icons</t>
-  </si>
-  <si>
-    <t>ScanPolicy Calculator (OC 0.7.4+)</t>
-  </si>
-  <si>
-    <t>FEATURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OC_SCAN_FILE_SYSTEM_LOCK </t>
-  </si>
-  <si>
-    <t>OC_SCAN_DEVICE_LOCK</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_FS_APFS</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_FS_HFS</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_FS_ESP</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_FS_NTFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OC_SCAN_ALLOW_FS_LINUX_ROOT </t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_FS_LINUX_DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OC_SCAN_ALLOW_FS_XBOOTLDR </t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_DEVICE_SATA</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_DEVICE_SASEX</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_DEVICE_SCSI</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_DEVICE_NVME</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_DEVICE_ATAPI</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_DEVICE_USB</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_DEVICE_FIREWIRE</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_DEVICE_SDCARD</t>
-  </si>
-  <si>
-    <t>OC_SCAN_ALLOW_DEVICE_PCI</t>
-  </si>
-  <si>
-    <t>ScanPolicy:</t>
   </si>
   <si>
     <t>Scan everything</t>
@@ -390,12 +402,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="########"/>
-    <numFmt numFmtId="60" formatCode="0E+00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -442,11 +453,6 @@
     <font>
       <sz val="12"/>
       <color indexed="13"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="13"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
@@ -457,23 +463,23 @@
     <font>
       <b val="1"/>
       <sz val="12"/>
-      <color indexed="15"/>
+      <color indexed="16"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color indexed="16"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="13"/>
       <name val="Calibri"/>
     </font>
@@ -485,7 +491,7 @@
     <font>
       <u val="single"/>
       <sz val="12"/>
-      <color indexed="17"/>
+      <color indexed="18"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -502,17 +508,17 @@
     <font>
       <b val="1"/>
       <sz val="12"/>
-      <color indexed="18"/>
+      <color indexed="19"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color indexed="10"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="18"/>
+      <color indexed="19"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -532,12 +538,28 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Helvetica Neue Medium"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Helvetica Neue Medium"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,12 +586,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="123">
+  <borders count="107">
     <border>
       <left/>
       <right/>
@@ -746,7 +774,7 @@
       <left style="hair">
         <color indexed="9"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -758,7 +786,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="hair">
@@ -776,7 +804,7 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -788,26 +816,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -819,9 +832,9 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -866,7 +879,7 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -878,7 +891,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="hair">
@@ -896,7 +909,7 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -908,11 +921,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
@@ -924,9 +937,9 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -971,7 +984,7 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="hair">
@@ -983,7 +996,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="hair">
@@ -1001,7 +1014,7 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -1013,7 +1026,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="hair">
@@ -1022,49 +1035,34 @@
       <top style="hair">
         <color indexed="8"/>
       </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right>
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="hair">
@@ -1079,7 +1077,7 @@
       <right style="thin">
         <color indexed="12"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="hair">
@@ -1088,13 +1086,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right>
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -1109,7 +1107,7 @@
       <right style="thin">
         <color indexed="12"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -1148,13 +1146,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right>
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="dotted">
@@ -1169,7 +1167,7 @@
       <right style="thin">
         <color indexed="12"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="dotted">
@@ -1238,7 +1236,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color indexed="8"/>
       </left>
       <right style="hair">
@@ -1247,22 +1245,7 @@
       <top style="hair">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1304,7 +1287,7 @@
       <right style="hair">
         <color indexed="9"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -1319,7 +1302,7 @@
       <right>
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -1331,10 +1314,100 @@
       <left>
         <color indexed="8"/>
       </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
       <right>
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="hair">
@@ -1343,13 +1416,253 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left>
         <color indexed="8"/>
       </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right>
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -1361,10 +1674,100 @@
       <left>
         <color indexed="8"/>
       </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="12"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -1382,998 +1785,383 @@
       <top>
         <color indexed="8"/>
       </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
+      <right style="hair">
+        <color indexed="9"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="12"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="12"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
       <right style="thin">
         <color indexed="12"/>
       </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="12"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="12"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2413,7 +2201,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2477,38 +2265,38 @@
     <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2516,116 +2304,122 @@
     <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="1" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="1" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2633,485 +2427,413 @@
     <xf numFmtId="0" fontId="1" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="1" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="92" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="92" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="93" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="93" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="95" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" borderId="95" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="97" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="98" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="97" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" borderId="100" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="98" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="99" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="100" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="101" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="103" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" borderId="105" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="1" borderId="106" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="107" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="27" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="108" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="109" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" borderId="110" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="111" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="112" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="113" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="114" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" borderId="115" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="111" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="102" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="116" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="116" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="106" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="117" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="109" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="109" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="116" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="118" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="119" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="17" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="17" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="17" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="17" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="121" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="122" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="122" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="122" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="109" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3135,7 +2857,8 @@
       <rgbColor rgb="fff2f2f2"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffff2600"/>
-      <rgbColor rgb="ffc6efce"/>
+      <rgbColor rgb="ff80f16b"/>
+      <rgbColor rgb="ffaaede4"/>
       <rgbColor rgb="ff848484"/>
       <rgbColor rgb="ffd2d2d2"/>
       <rgbColor rgb="ff0563c1"/>
@@ -3151,14 +2874,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>53473</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>188432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>23772</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19667</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>151403</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3167,8 +2890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-12700" y="6537458"/>
-          <a:ext cx="6272173" cy="2917675"/>
+          <a:off x="-19050" y="6161242"/>
+          <a:ext cx="10310773" cy="2914452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3191,7 +2914,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3206,7 +2929,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3218,7 +2941,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3231,7 +2954,7 @@
             <a:t>USAGE</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3243,504 +2966,7 @@
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzPct val="100000"/>
-            <a:buFontTx/>
-            <a:buAutoNum type="arabicPeriod" startAt="1"/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Copy the Hex values for the flags you want to set from »HEX Storage« to the »HEX« fields of the macOS version you want to calculate a »csr-active-config« for.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzPct val="100000"/>
-            <a:buFontTx/>
-            <a:buAutoNum type="arabicPeriod" startAt="1"/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>The result of the calculation is displayed in »CONVERTED to HEX (OpenCore)«</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzPct val="100000"/>
-            <a:buFontTx/>
-            <a:buAutoNum type="arabicPeriod" startAt="1"/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Take this Hex value, split it into pairs of 2 and reverse the order of the the pairs from front to back and type into the green box manually. </a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzPct val="100000"/>
-            <a:buFontTx/>
-            <a:buAutoNum type="arabicPeriod" startAt="1"/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Copy the hex-swapped value to to field csr-active-config of your config.plist to disable SIP.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Example</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>: HEX Result is: 00 00 08 67, in reversed order: = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>67 08 00 00 </a:t>
-          </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="FF2600"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>NOTE 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>: In macOS BigSur/Monterey, Bit 5 needs to be unset in order to get notified about System Updates!</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>NOTE 2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>: The Hex value for Clover can be used as is, no byte swapping and adding 00’s is required.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3767,7 +2993,45 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3779,7 +3043,466 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Copy the Hex values for the flags you want to set from »HEX Storage« to the »HEX« fields of the macOS version you want to calculate a »csr-active-config« for.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>The result of the calculation is displayed in »CONVERTED to HEX (OpenCore)«</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Take this Hex value, split it into pairs of 2 and reverse the order of the the pairs from front to back and type into the green box manually. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Copy the hex-swapped value to to field csr-active-config of your config.plist to disable SIP.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:br>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Example</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>: HEX Result is: 00 00 08 67, in reversed order: = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>67 08 00 00 </a:t>
+          </a:r>
+          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FF2600"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>NOTE 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>: In macOS BigSur/Monterey, Bit 5 needs to be unset in order to get notified about System Updates!</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>NOTE 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>: The Hex value (green) for Clover can be used as is, no byte swapping and additional 00’s are required.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3792,7 +3515,7 @@
             <a:t>NOTE 3: </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3802,7 +3525,71 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>The column »AllowToggleSIP« lists the flags applied when using the »ToggleSIP« feature in OpenCore’s BootPicker (has to be enabled in config.plist first).</a:t>
+            <a:t>The column »AllowToggleSIP« lists the flags applied when using the »ToggleSIP« feature in OpenCore’s BootPicker (has to be enabled in config.plist first)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>NOTE 4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>: Color Coding: blue = OpenCore; green = Clover</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3813,14 +3600,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>13921</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>51570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>208186</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>30808</xdr:rowOff>
+      <xdr:colOff>36472</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>53852</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3829,18 +3616,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-12700" y="9449386"/>
-          <a:ext cx="7675787" cy="4233288"/>
+          <a:off x="-19050" y="8975860"/>
+          <a:ext cx="7504073" cy="4218683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -4870,14 +4654,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>53372</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>386079</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>16417</xdr:rowOff>
+      <xdr:colOff>411479</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16239</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4886,7 +4670,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="3651917"/>
+          <a:off x="-19050" y="3440284"/>
           <a:ext cx="4818380" cy="1649606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5193,13 +4977,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>84172</xdr:rowOff>
+      <xdr:rowOff>83994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>28141</xdr:rowOff>
+      <xdr:rowOff>27963</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5208,7 +4992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="6180807"/>
+          <a:off x="-19050" y="6185074"/>
           <a:ext cx="5143501" cy="1208890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5725,8 +5509,8 @@
       <xdr:rowOff>44813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>497125</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44172</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>136737</xdr:rowOff>
     </xdr:to>
@@ -5738,7 +5522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="-19050" y="3566523"/>
-          <a:ext cx="5234226" cy="1778485"/>
+          <a:ext cx="5314673" cy="1778485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7093,7 +6877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:P28"/>
+  <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -7113,8 +6897,8 @@
     <col min="12" max="12" width="11.9219" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.4453" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.7734" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.2578" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.9219" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.8516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7344" style="1" customWidth="1"/>
     <col min="17" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7191,18 +6975,18 @@
         <v>4</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" t="s" s="19">
+      <c r="I4" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" t="s" s="19">
+      <c r="J4" s="23"/>
+      <c r="K4" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" t="s" s="19">
+      <c r="L4" s="23"/>
+      <c r="M4" t="s" s="22">
         <v>7</v>
       </c>
-      <c r="N4" s="20"/>
+      <c r="N4" s="23"/>
       <c r="O4" t="s" s="22">
         <v>8</v>
       </c>
@@ -7222,939 +7006,919 @@
         <v>12</v>
       </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="F5" s="13"/>
       <c r="G5" t="s" s="28">
         <v>12</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" t="s" s="28">
+      <c r="I5" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" t="s" s="28">
+      <c r="J5" s="31"/>
+      <c r="K5" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" t="s" s="28">
+      <c r="L5" s="31"/>
+      <c r="M5" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" t="s" s="31">
+      <c r="N5" s="31"/>
+      <c r="O5" t="s" s="30">
         <v>16</v>
       </c>
-      <c r="P5" s="32"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" ht="17.65" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" t="s" s="35">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" t="s" s="34">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="36">
+      <c r="D6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="37">
+      <c r="E6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" t="s" s="36">
+      <c r="F6" s="13"/>
+      <c r="G6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="H6" t="s" s="37">
+      <c r="H6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="I6" t="s" s="36">
+      <c r="I6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="J6" t="s" s="37">
+      <c r="J6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="K6" t="s" s="36">
+      <c r="K6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="L6" t="s" s="37">
+      <c r="L6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="M6" t="s" s="36">
+      <c r="M6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="N6" t="s" s="37">
+      <c r="N6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="O6" t="s" s="36">
+      <c r="O6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="P6" t="s" s="37">
+      <c r="P6" t="s" s="36">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>1</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="40">
+      <c r="C7" t="s" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>1</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <f>HEX2DEC(D7)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="41">
+      <c r="F7" s="42"/>
+      <c r="G7" s="40">
         <v>1</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <f>HEX2DEC(G7)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="40">
         <v>1</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <f>HEX2DEC(I7)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="40">
         <v>1</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="41">
         <f>HEX2DEC(K7)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="40">
         <v>1</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="41">
         <f>HEX2DEC(M7)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="40">
         <v>1</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="41">
         <f>HEX2DEC(O7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="17.65" customHeight="1">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>2</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" t="s" s="44">
+      <c r="C8" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>2</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <f>HEX2DEC(D8)</f>
         <v>2</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="41">
+      <c r="F8" s="42"/>
+      <c r="G8" s="40">
         <v>2</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <f>HEX2DEC(G8)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>2</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <f>HEX2DEC(I8)</f>
         <v>2</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="40">
         <v>2</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="41">
         <f>HEX2DEC(K8)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="40">
         <v>2</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="41">
         <f>HEX2DEC(M8)</f>
         <v>2</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <v>2</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="41">
         <f>HEX2DEC(O8)</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="17.65" customHeight="1">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>3</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="44">
+      <c r="C9" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>4</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <f>HEX2DEC(D9)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="41">
+      <c r="F9" s="42"/>
+      <c r="G9" s="40">
         <v>4</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <f>HEX2DEC(G9)</f>
         <v>4</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <v>4</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="41">
         <f>HEX2DEC(I9)</f>
         <v>4</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="40">
         <v>4</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="41">
         <f>HEX2DEC(K9)</f>
         <v>4</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="40">
         <v>4</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="41">
         <f>HEX2DEC(M9)</f>
         <v>4</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="40">
         <v>4</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="41">
         <f>HEX2DEC(O9)</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="17.65" customHeight="1">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>4</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>8</v>
       </c>
-      <c r="C10" t="s" s="44">
+      <c r="C10" t="s" s="43">
         <v>23</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <v>8</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <f>HEX2DEC(D10)</f>
         <v>8</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42">
+      <c r="F10" s="42"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41">
         <f>HEX2DEC(G10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="40">
         <v>8</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="41">
         <f>HEX2DEC(I10)</f>
         <v>8</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="40">
         <v>8</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="41">
         <f>HEX2DEC(K10)</f>
         <v>8</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42">
+      <c r="M10" s="40"/>
+      <c r="N10" s="41">
         <f>HEX2DEC(M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="42">
+      <c r="O10" s="40"/>
+      <c r="P10" s="41">
         <f>HEX2DEC(O10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="17.65" customHeight="1">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>5</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="47">
+      <c r="C11" t="s" s="46">
         <v>24</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42">
+      <c r="D11" s="40"/>
+      <c r="E11" s="41">
         <f>HEX2DEC(D11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42">
+      <c r="F11" s="42"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41">
         <f>HEX2DEC(G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="47">
         <v>10</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <f>HEX2DEC(I11)</f>
         <v>16</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="47">
         <v>10</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="41">
         <f>HEX2DEC(K11)</f>
         <v>16</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="42">
+      <c r="M11" s="47"/>
+      <c r="N11" s="41">
         <f>HEX2DEC(M11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="42">
+      <c r="O11" s="40"/>
+      <c r="P11" s="41">
         <f>HEX2DEC(O11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="17.65" customHeight="1">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>6</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="44">
+      <c r="C12" t="s" s="43">
         <v>25</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="40">
         <v>20</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <f>HEX2DEC(D12)</f>
         <v>32</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="41">
+      <c r="F12" s="42"/>
+      <c r="G12" s="40">
         <v>20</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="41">
         <f>HEX2DEC(G12)</f>
         <v>32</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="40">
         <v>20</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <f>HEX2DEC(I12)</f>
         <v>32</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="40">
         <v>20</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="41">
         <f>HEX2DEC(K12)</f>
         <v>32</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="40">
         <v>20</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="41">
         <f>HEX2DEC(M12)</f>
         <v>32</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="40">
         <v>20</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="41">
         <f>HEX2DEC(O12)</f>
         <v>32</v>
       </c>
     </row>
     <row r="13" ht="17.65" customHeight="1">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>7</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="38">
         <v>40</v>
       </c>
-      <c r="C13" t="s" s="44">
+      <c r="C13" t="s" s="43">
         <v>26</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="40">
         <v>40</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <f>HEX2DEC(D13)</f>
         <v>64</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="41">
+      <c r="F13" s="42"/>
+      <c r="G13" s="40">
         <v>40</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <f>HEX2DEC(G13)</f>
         <v>64</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="40">
         <v>40</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="41">
         <f>HEX2DEC(I13)</f>
         <v>64</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="40">
         <v>40</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="41">
         <f>HEX2DEC(K13)</f>
         <v>64</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="40">
         <v>40</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="41">
         <f>HEX2DEC(M13)</f>
         <v>64</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="40">
         <v>40</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="41">
         <f>HEX2DEC(O13)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="14" ht="18.15" customHeight="1">
-      <c r="A14" s="38">
+    <row r="14" ht="17.65" customHeight="1">
+      <c r="A14" s="37">
         <v>8</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="38">
         <v>80</v>
       </c>
-      <c r="C14" t="s" s="40">
+      <c r="C14" t="s" s="39">
         <v>27</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42">
+      <c r="D14" s="40"/>
+      <c r="E14" s="41">
         <f>HEX2DEC(D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42">
+      <c r="F14" s="42"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41">
         <f>HEX2DEC(G14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="40">
         <v>80</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="41">
         <f>HEX2DEC(I14)</f>
         <v>128</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="40">
         <v>80</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="41">
         <f>HEX2DEC(K14)</f>
         <v>128</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42">
+      <c r="M14" s="40"/>
+      <c r="N14" s="41">
         <f>HEX2DEC(M14)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50">
+      <c r="O14" s="48"/>
+      <c r="P14" s="49">
         <f>HEX2DEC(O14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="18.65" customHeight="1">
-      <c r="A15" s="38">
+    <row r="15" ht="17.65" customHeight="1">
+      <c r="A15" s="37">
         <v>9</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>100</v>
       </c>
-      <c r="C15" t="s" s="44">
+      <c r="C15" t="s" s="43">
         <v>28</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42">
+      <c r="D15" s="40"/>
+      <c r="E15" s="41">
         <f>HEX2DEC(D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42">
+      <c r="F15" s="42"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41">
         <f>HEX2DEC(G15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="40">
         <v>100</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="41">
         <f>HEX2DEC(I15)</f>
         <v>256</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="40">
         <v>100</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="41">
         <f>HEX2DEC(K15)</f>
         <v>256</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50">
+      <c r="M15" s="48"/>
+      <c r="N15" s="49">
         <f>HEX2DEC(M15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" ht="18.65" customHeight="1">
-      <c r="A16" s="38">
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" ht="17.65" customHeight="1">
+      <c r="A16" s="37">
         <v>10</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <v>200</v>
       </c>
-      <c r="C16" t="s" s="44">
+      <c r="C16" t="s" s="43">
         <v>29</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="40">
         <v>200</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <f>HEX2DEC(D16)</f>
         <v>512</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42">
+      <c r="F16" s="42"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41">
         <f>HEX2DEC(G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="40">
         <v>200</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <f>HEX2DEC(I16)</f>
         <v>512</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="48">
         <v>200</v>
       </c>
-      <c r="L16" s="50">
+      <c r="L16" s="49">
         <f>HEX2DEC(K16)</f>
         <v>512</v>
       </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-    </row>
-    <row r="17" ht="18.65" customHeight="1">
-      <c r="A17" s="38">
+      <c r="M16" s="52"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="55"/>
+    </row>
+    <row r="17" ht="17.65" customHeight="1">
+      <c r="A17" s="37">
         <v>11</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="38">
         <v>400</v>
       </c>
-      <c r="C17" t="s" s="44">
+      <c r="C17" t="s" s="43">
         <v>30</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42">
+      <c r="D17" s="40"/>
+      <c r="E17" s="41">
         <f>HEX2DEC(D17)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42">
+      <c r="F17" s="42"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41">
         <f>HEX2DEC(G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="48">
         <v>400</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="49">
         <f>HEX2DEC(I17)</f>
         <v>1024</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
-    </row>
-    <row r="18" ht="18.65" customHeight="1">
-      <c r="A18" s="63">
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="61"/>
+    </row>
+    <row r="18" ht="17.65" customHeight="1">
+      <c r="A18" s="62">
         <v>12</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="63">
         <v>800</v>
       </c>
-      <c r="C18" t="s" s="65">
+      <c r="C18" t="s" s="64">
         <v>31</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50">
+      <c r="D18" s="48"/>
+      <c r="E18" s="49">
         <f>HEX2DEC(D18)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="49">
+      <c r="F18" s="42"/>
+      <c r="G18" s="48">
         <v>800</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="49">
         <f>HEX2DEC(G18)</f>
         <v>2048</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="67"/>
-    </row>
-    <row r="19" ht="17.15" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="75"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66"/>
+    </row>
+    <row r="19" ht="16.65" customHeight="1">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="74"/>
     </row>
     <row r="20" ht="17.65" customHeight="1">
-      <c r="A20" t="s" s="76">
+      <c r="A20" t="s" s="75">
         <v>32</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" t="s" s="78">
+      <c r="B20" s="76"/>
+      <c r="C20" t="s" s="77">
         <v>33</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80">
+      <c r="D20" t="s" s="78">
+        <f>"0x"&amp;DEC2HEX(D21,3)</f>
+        <v>34</v>
+      </c>
+      <c r="E20" s="79">
         <f>SUM(E7:E18)</f>
         <v>623</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="80">
+      <c r="F20" s="80"/>
+      <c r="G20" t="s" s="81">
+        <f>"0x"&amp;DEC2HEX(G21,3)</f>
+        <v>35</v>
+      </c>
+      <c r="H20" s="79">
         <f>SUM(H7:H18)</f>
         <v>2151</v>
       </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="80">
-        <f>SUM(J7:J17)</f>
+      <c r="I20" t="s" s="81">
+        <f>"0x"&amp;DEC2HEX(I21,3)</f>
+        <v>36</v>
+      </c>
+      <c r="J20" s="79">
+        <f>SUM(J7:J18)</f>
         <v>2047</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85">
-        <f>SUM(L7:L16)</f>
+      <c r="K20" t="s" s="81">
+        <f>"0x"&amp;DEC2HEX(K21,3)</f>
+        <v>37</v>
+      </c>
+      <c r="L20" s="79">
+        <f>SUM(L7:L18)</f>
         <v>1023</v>
       </c>
-      <c r="M20" s="86"/>
-      <c r="N20" s="87">
+      <c r="M20" t="s" s="81">
+        <f>"0x"&amp;DEC2HEX(M21,3)</f>
+        <v>38</v>
+      </c>
+      <c r="N20" s="79">
         <f>SUM(N7:N15)</f>
         <v>103</v>
       </c>
-      <c r="O20" s="86"/>
-      <c r="P20" s="80">
+      <c r="O20" t="s" s="82">
+        <f>"0x"&amp;DEC2HEX(O21,3)</f>
+        <v>38</v>
+      </c>
+      <c r="P20" s="83">
         <f>SUM(P7:P14)</f>
         <v>103</v>
       </c>
     </row>
-    <row r="21" ht="17.65" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="89"/>
-      <c r="C21" t="s" s="78">
-        <v>34</v>
-      </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91">
-        <f>DEC2HEX(E22,8)</f>
-        <v>623</v>
-      </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="91">
-        <f>DEC2HEX(H22,8)</f>
-        <v>2151</v>
-      </c>
-      <c r="I21" s="94"/>
-      <c r="J21" s="91">
-        <f>DEC2HEX(J22,8)</f>
-        <v>2047</v>
-      </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="95">
-        <f>DEC2HEX(L22,8)</f>
-        <v>1023</v>
-      </c>
-      <c r="M21" s="96"/>
-      <c r="N21" s="95">
-        <f>DEC2HEX(N22,8)</f>
-        <v>103</v>
-      </c>
-      <c r="O21" s="96"/>
-      <c r="P21" s="91">
-        <f>DEC2HEX(P22,8)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" ht="17.65" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
-      <c r="C22" t="s" s="78">
-        <v>35</v>
-      </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="97">
+    <row r="21" ht="16.65" customHeight="1">
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" t="s" s="85">
+        <v>39</v>
+      </c>
+      <c r="D21" s="86">
         <f>DEC2HEX(E20,8)</f>
         <v>623</v>
       </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="97">
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89">
         <f>DEC2HEX(H20,8)</f>
         <v>2151</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="97">
+      <c r="H21" s="90"/>
+      <c r="I21" s="89">
         <f>DEC2HEX(J20,8)</f>
         <v>2047</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="102">
+      <c r="J21" s="90"/>
+      <c r="K21" s="89">
         <f>DEC2HEX(L20,8)</f>
         <v>1023</v>
       </c>
-      <c r="M22" s="96"/>
-      <c r="N22" s="103">
+      <c r="L21" s="90"/>
+      <c r="M21" s="89">
         <f>DEC2HEX(N20,8)</f>
         <v>103</v>
       </c>
-      <c r="O22" s="96"/>
-      <c r="P22" s="97">
+      <c r="N21" s="90"/>
+      <c r="O21" s="89">
         <f>DEC2HEX(P20,8)</f>
         <v>103</v>
       </c>
+      <c r="P21" s="87"/>
+    </row>
+    <row r="22" ht="17.65" customHeight="1">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" t="s" s="92">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s" s="93">
+        <v>41</v>
+      </c>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" t="s" s="96">
+        <v>42</v>
+      </c>
+      <c r="H22" s="97"/>
+      <c r="I22" t="s" s="96">
+        <v>43</v>
+      </c>
+      <c r="J22" s="97"/>
+      <c r="K22" t="s" s="96">
+        <v>44</v>
+      </c>
+      <c r="L22" s="97"/>
+      <c r="M22" t="s" s="98">
+        <v>45</v>
+      </c>
+      <c r="N22" s="99"/>
+      <c r="O22" t="s" s="98">
+        <v>45</v>
+      </c>
+      <c r="P22" s="94"/>
     </row>
     <row r="23" ht="17.65" customHeight="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="105"/>
-      <c r="C23" t="s" s="106">
-        <v>36</v>
-      </c>
-      <c r="D23" s="107"/>
-      <c r="E23" t="s" s="108">
-        <v>37</v>
-      </c>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
-      <c r="H23" t="s" s="108">
-        <v>38</v>
-      </c>
-      <c r="I23" s="107"/>
-      <c r="J23" t="s" s="108">
-        <v>39</v>
-      </c>
-      <c r="K23" s="107"/>
-      <c r="L23" t="s" s="111">
-        <v>40</v>
-      </c>
-      <c r="M23" s="112"/>
-      <c r="N23" t="s" s="108">
-        <v>41</v>
-      </c>
-      <c r="O23" s="107"/>
-      <c r="P23" t="s" s="108">
-        <v>41</v>
-      </c>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="104"/>
     </row>
     <row r="24" ht="17.65" customHeight="1">
-      <c r="A24" s="113"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="119"/>
+      <c r="A24" t="s" s="75">
+        <v>46</v>
+      </c>
+      <c r="B24" s="76"/>
+      <c r="C24" t="s" s="105">
+        <v>47</v>
+      </c>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" t="s" s="109">
+        <v>48</v>
+      </c>
+      <c r="H24" s="110"/>
+      <c r="I24" t="s" s="109">
+        <v>48</v>
+      </c>
+      <c r="J24" s="110"/>
+      <c r="K24" t="s" s="109">
+        <v>48</v>
+      </c>
+      <c r="L24" s="110"/>
+      <c r="M24" t="s" s="109">
+        <v>48</v>
+      </c>
+      <c r="N24" s="110"/>
+      <c r="O24" t="s" s="111">
+        <v>48</v>
+      </c>
+      <c r="P24" s="112"/>
     </row>
     <row r="25" ht="17.65" customHeight="1">
-      <c r="A25" t="s" s="120">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116"/>
+      <c r="G25" t="s" s="109">
+        <v>50</v>
+      </c>
+      <c r="H25" s="117"/>
+      <c r="I25" t="s" s="109">
+        <v>50</v>
+      </c>
+      <c r="J25" s="117"/>
+      <c r="K25" t="s" s="109">
+        <v>50</v>
+      </c>
+      <c r="L25" s="117"/>
+      <c r="M25" t="s" s="109">
+        <v>50</v>
+      </c>
+      <c r="N25" s="117"/>
+      <c r="O25" t="s" s="111">
+        <v>50</v>
+      </c>
+      <c r="P25" s="112"/>
+    </row>
+    <row r="26" ht="17.65" customHeight="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" t="s" s="118">
+        <v>51</v>
+      </c>
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="116"/>
+      <c r="G26" t="s" s="109">
+        <v>52</v>
+      </c>
+      <c r="H26" s="117"/>
+      <c r="I26" t="s" s="109">
+        <v>43</v>
+      </c>
+      <c r="J26" s="117"/>
+      <c r="K26" t="s" s="109">
+        <v>44</v>
+      </c>
+      <c r="L26" s="117"/>
+      <c r="M26" t="s" s="109">
+        <v>53</v>
+      </c>
+      <c r="N26" s="117"/>
+      <c r="O26" t="s" s="111">
+        <v>54</v>
+      </c>
+      <c r="P26" s="112"/>
+    </row>
+    <row r="27" ht="17.65" customHeight="1">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" t="s" s="119">
+        <v>55</v>
+      </c>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" t="s" s="123">
         <v>42</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" t="s" s="122">
+      <c r="H27" s="124"/>
+      <c r="I27" t="s" s="123">
         <v>43</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="126"/>
-      <c r="H25" t="s" s="127">
+      <c r="J27" s="124"/>
+      <c r="K27" t="s" s="123">
         <v>44</v>
       </c>
-      <c r="I25" s="128"/>
-      <c r="J25" t="s" s="127">
-        <v>44</v>
-      </c>
-      <c r="K25" s="128"/>
-      <c r="L25" t="s" s="127">
-        <v>44</v>
-      </c>
-      <c r="M25" s="128"/>
-      <c r="N25" t="s" s="127">
-        <v>44</v>
-      </c>
-      <c r="O25" s="128"/>
-      <c r="P25" t="s" s="127">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" ht="17.65" customHeight="1">
-      <c r="A26" s="129"/>
-      <c r="B26" s="121"/>
-      <c r="C26" t="s" s="130">
+      <c r="L27" s="124"/>
+      <c r="M27" t="s" s="123">
         <v>45</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134"/>
-      <c r="H26" t="s" s="127">
-        <v>46</v>
-      </c>
-      <c r="I26" s="135"/>
-      <c r="J26" t="s" s="127">
-        <v>46</v>
-      </c>
-      <c r="K26" s="135"/>
-      <c r="L26" t="s" s="127">
-        <v>46</v>
-      </c>
-      <c r="M26" s="135"/>
-      <c r="N26" t="s" s="127">
-        <v>46</v>
-      </c>
-      <c r="O26" s="135"/>
-      <c r="P26" t="s" s="127">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" ht="17.65" customHeight="1">
-      <c r="A27" s="136"/>
-      <c r="B27" s="77"/>
-      <c r="C27" t="s" s="137">
-        <v>47</v>
-      </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134"/>
-      <c r="H27" t="s" s="127">
-        <v>48</v>
-      </c>
-      <c r="I27" s="135"/>
-      <c r="J27" t="s" s="127">
-        <v>39</v>
-      </c>
-      <c r="K27" s="135"/>
-      <c r="L27" t="s" s="127">
-        <v>40</v>
-      </c>
-      <c r="M27" s="138"/>
-      <c r="N27" t="s" s="139">
-        <v>49</v>
-      </c>
-      <c r="O27" s="140"/>
-      <c r="P27" t="s" s="127">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" ht="17.65" customHeight="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="105"/>
-      <c r="C28" t="s" s="141">
-        <v>51</v>
-      </c>
-      <c r="D28" s="109"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="143"/>
-      <c r="H28" t="s" s="144">
-        <v>38</v>
-      </c>
-      <c r="I28" s="107"/>
-      <c r="J28" t="s" s="144">
-        <v>39</v>
-      </c>
-      <c r="K28" s="107"/>
-      <c r="L28" t="s" s="144">
-        <v>40</v>
-      </c>
-      <c r="M28" s="107"/>
-      <c r="N28" t="s" s="144">
-        <v>41</v>
-      </c>
-      <c r="O28" s="107"/>
-      <c r="P28" t="s" s="144">
-        <v>41</v>
-      </c>
+      <c r="N27" s="124"/>
+      <c r="O27" t="s" s="125">
+        <v>45</v>
+      </c>
+      <c r="P27" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -8173,10 +7937,10 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G3:P3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="A24:B27"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A20:B23"/>
+    <mergeCell ref="A20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -8189,23 +7953,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="145" customWidth="1"/>
-    <col min="2" max="2" width="6.79688" style="145" customWidth="1"/>
-    <col min="3" max="3" width="33" style="145" customWidth="1"/>
-    <col min="4" max="4" width="7.57031" style="145" customWidth="1"/>
-    <col min="5" max="5" width="88.8906" style="145" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="145" customWidth="1"/>
+    <col min="1" max="1" width="10.4844" style="126" customWidth="1"/>
+    <col min="2" max="2" width="6.79688" style="126" customWidth="1"/>
+    <col min="3" max="3" width="33" style="126" customWidth="1"/>
+    <col min="4" max="4" width="7.57031" style="126" customWidth="1"/>
+    <col min="5" max="5" width="88.8906" style="126" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="126" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8213,226 +7977,220 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="149"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="150">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s" s="151">
+      <c r="A3" t="s" s="131">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="152">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s" s="152">
+      <c r="C3" t="s" s="133">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s" s="133">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="152">
-        <v>55</v>
+      <c r="E3" t="s" s="133">
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="153"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="156"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="137"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="157">
+      <c r="A5" s="138">
         <v>1</v>
       </c>
-      <c r="B5" s="157">
+      <c r="B5" s="138">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="158">
-        <v>56</v>
-      </c>
-      <c r="D5" s="159">
+      <c r="C5" t="s" s="139">
+        <v>60</v>
+      </c>
+      <c r="D5" s="140">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="160">
-        <v>57</v>
+      <c r="E5" t="s" s="141">
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="157">
+      <c r="A6" s="138">
         <v>2</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" t="s" s="158">
-        <v>58</v>
-      </c>
-      <c r="D6" s="159">
+      <c r="B6" s="138"/>
+      <c r="C6" t="s" s="139">
+        <v>62</v>
+      </c>
+      <c r="D6" s="140">
         <f>HEX2DEC(B6)</f>
         <v>0</v>
       </c>
-      <c r="E6" t="s" s="160">
-        <v>59</v>
+      <c r="E6" t="s" s="141">
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="157">
+      <c r="A7" s="138">
         <v>4</v>
       </c>
-      <c r="B7" s="157"/>
-      <c r="C7" t="s" s="158">
-        <v>60</v>
-      </c>
-      <c r="D7" s="159">
+      <c r="B7" s="138"/>
+      <c r="C7" t="s" s="139">
+        <v>64</v>
+      </c>
+      <c r="D7" s="140">
         <f>HEX2DEC(B7)</f>
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="160">
-        <v>61</v>
+      <c r="E7" t="s" s="141">
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="157">
+      <c r="A8" s="138">
         <v>8</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" t="s" s="158">
-        <v>62</v>
-      </c>
-      <c r="D8" s="159">
+      <c r="B8" s="138"/>
+      <c r="C8" t="s" s="139">
+        <v>66</v>
+      </c>
+      <c r="D8" s="140">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
-      <c r="E8" t="s" s="160">
-        <v>63</v>
+      <c r="E8" t="s" s="141">
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="157">
+      <c r="A9" s="138">
         <v>10</v>
       </c>
-      <c r="B9" s="157">
+      <c r="B9" s="138">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="158">
-        <v>64</v>
-      </c>
-      <c r="D9" s="159">
+      <c r="C9" t="s" s="139">
+        <v>68</v>
+      </c>
+      <c r="D9" s="140">
         <f>HEX2DEC(B9)</f>
         <v>16</v>
       </c>
-      <c r="E9" t="s" s="160">
-        <v>65</v>
+      <c r="E9" t="s" s="141">
+        <v>69</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="157">
+      <c r="A10" s="138">
         <v>20</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" t="s" s="158">
-        <v>66</v>
-      </c>
-      <c r="D10" s="159">
+      <c r="B10" s="138"/>
+      <c r="C10" t="s" s="139">
+        <v>70</v>
+      </c>
+      <c r="D10" s="140">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="160">
-        <v>67</v>
+      <c r="E10" t="s" s="141">
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="157">
+      <c r="A11" s="138">
         <v>40</v>
       </c>
-      <c r="B11" s="157"/>
-      <c r="C11" t="s" s="158">
-        <v>68</v>
-      </c>
-      <c r="D11" s="159">
+      <c r="B11" s="138"/>
+      <c r="C11" t="s" s="139">
+        <v>72</v>
+      </c>
+      <c r="D11" s="140">
         <f>HEX2DEC(B11)</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="160">
-        <v>69</v>
+      <c r="E11" t="s" s="141">
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="157">
+      <c r="A12" s="138">
         <v>80</v>
       </c>
-      <c r="B12" s="157">
+      <c r="B12" s="138">
         <v>80</v>
       </c>
-      <c r="C12" t="s" s="158">
-        <v>70</v>
-      </c>
-      <c r="D12" s="159">
+      <c r="C12" t="s" s="139">
+        <v>74</v>
+      </c>
+      <c r="D12" s="140">
         <f>HEX2DEC(B12)</f>
         <v>128</v>
       </c>
-      <c r="E12" t="s" s="160">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="153"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="156"/>
-    </row>
-    <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" s="161"/>
-      <c r="B14" s="162"/>
-      <c r="C14" t="s" s="163">
-        <v>72</v>
-      </c>
-      <c r="D14" s="164">
+      <c r="E12" t="s" s="142">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" ht="17.65" customHeight="1">
+      <c r="A13" t="s" s="143">
+        <v>76</v>
+      </c>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="145">
         <f>SUM(D5:D12)</f>
         <v>145</v>
       </c>
-      <c r="E14" s="165"/>
-    </row>
-    <row r="15" ht="17.65" customHeight="1">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
-    </row>
-    <row r="16" ht="14.7" customHeight="1">
-      <c r="A16" t="s" s="171">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s" s="172">
-        <v>74</v>
-      </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="174">
+      <c r="E13" s="146"/>
+    </row>
+    <row r="14" ht="17.65" customHeight="1">
+      <c r="A14" s="147"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="151"/>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
+      <c r="A15" t="s" s="152">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s" s="153">
+        <v>77</v>
+      </c>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155">
         <v>17</v>
       </c>
-      <c r="E16" s="175"/>
-    </row>
-    <row r="17" ht="16.65" customHeight="1">
-      <c r="A17" s="176"/>
-      <c r="B17" t="s" s="177">
-        <v>75</v>
-      </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="179">
+      <c r="E15" s="156"/>
+    </row>
+    <row r="16" ht="16.65" customHeight="1">
+      <c r="A16" s="157"/>
+      <c r="B16" t="s" s="158">
+        <v>78</v>
+      </c>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160">
         <v>145</v>
       </c>
-      <c r="E17" s="180"/>
+      <c r="E16" s="161"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -8451,359 +8209,360 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.8516" style="181" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="181" customWidth="1"/>
-    <col min="4" max="4" width="11.8516" style="181" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="181" customWidth="1"/>
+    <col min="1" max="2" width="10.8516" style="162" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="162" customWidth="1"/>
+    <col min="4" max="4" width="10.6484" style="162" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="162" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.15" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="185"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="186">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s" s="187">
+      <c r="A3" t="s" s="166">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s" s="166">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="187">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s" s="187">
+      <c r="C3" t="s" s="166">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s" s="166">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191"/>
+      <c r="A4" s="167"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="192">
+      <c r="A5" s="170">
         <v>1</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="170">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="193">
-        <v>78</v>
-      </c>
-      <c r="D5" s="194">
+      <c r="C5" t="s" s="171">
+        <v>81</v>
+      </c>
+      <c r="D5" s="172">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="192">
+      <c r="A6" s="170">
         <v>2</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="170">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="193">
-        <v>79</v>
-      </c>
-      <c r="D6" s="194">
+      <c r="C6" t="s" s="171">
+        <v>82</v>
+      </c>
+      <c r="D6" s="172">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="192"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="191"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="169"/>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="192">
+      <c r="A8" s="170">
         <v>100</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="170">
         <v>100</v>
       </c>
-      <c r="C8" t="s" s="193">
-        <v>80</v>
-      </c>
-      <c r="D8" s="194">
+      <c r="C8" t="s" s="171">
+        <v>83</v>
+      </c>
+      <c r="D8" s="172">
         <f>HEX2DEC(B8)</f>
         <v>256</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="192">
+      <c r="A9" s="170">
         <v>200</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="170">
         <v>200</v>
       </c>
-      <c r="C9" t="s" s="193">
-        <v>81</v>
-      </c>
-      <c r="D9" s="194">
+      <c r="C9" t="s" s="171">
+        <v>84</v>
+      </c>
+      <c r="D9" s="172">
         <f>HEX2DEC(B9)</f>
         <v>512</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="192">
+      <c r="A10" s="170">
         <v>400</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" t="s" s="193">
-        <v>82</v>
-      </c>
-      <c r="D10" s="194">
+      <c r="B10" s="170"/>
+      <c r="C10" t="s" s="171">
+        <v>85</v>
+      </c>
+      <c r="D10" s="172">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="192">
+      <c r="A11" s="170">
         <v>800</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="170">
         <v>800</v>
       </c>
-      <c r="C11" t="s" s="193">
-        <v>83</v>
-      </c>
-      <c r="D11" s="194">
+      <c r="C11" t="s" s="171">
+        <v>86</v>
+      </c>
+      <c r="D11" s="172">
         <f>HEX2DEC(B11)</f>
         <v>2048</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="192">
+      <c r="A12" s="170">
         <v>1000</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" t="s" s="193">
-        <v>84</v>
-      </c>
-      <c r="D12" s="194">
+      <c r="B12" s="170"/>
+      <c r="C12" t="s" s="171">
+        <v>87</v>
+      </c>
+      <c r="D12" s="172">
         <f>HEX2DEC(B12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="192">
+      <c r="A13" s="170">
         <v>2000</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" t="s" s="193">
-        <v>85</v>
-      </c>
-      <c r="D13" s="194">
+      <c r="B13" s="170"/>
+      <c r="C13" t="s" s="171">
+        <v>88</v>
+      </c>
+      <c r="D13" s="172">
         <f>HEX2DEC(B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="16.65" customHeight="1">
-      <c r="A14" s="192">
+      <c r="A14" s="170">
         <v>4000</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" t="s" s="193">
-        <v>86</v>
-      </c>
-      <c r="D14" s="194">
+      <c r="B14" s="170"/>
+      <c r="C14" t="s" s="171">
+        <v>89</v>
+      </c>
+      <c r="D14" s="172">
         <f>HEX2DEC(B14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="16.65" customHeight="1">
-      <c r="A15" s="192"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="191"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="169"/>
     </row>
     <row r="16" ht="16.65" customHeight="1">
-      <c r="A16" s="192">
+      <c r="A16" s="170">
         <v>10000</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="170">
         <v>10000</v>
       </c>
-      <c r="C16" t="s" s="193">
-        <v>87</v>
-      </c>
-      <c r="D16" s="194">
+      <c r="C16" t="s" s="171">
+        <v>90</v>
+      </c>
+      <c r="D16" s="172">
         <f>HEX2DEC(B16)</f>
         <v>65536</v>
       </c>
     </row>
     <row r="17" ht="16.65" customHeight="1">
-      <c r="A17" s="192">
+      <c r="A17" s="170">
         <v>20000</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" t="s" s="193">
-        <v>88</v>
-      </c>
-      <c r="D17" s="194">
+      <c r="B17" s="170"/>
+      <c r="C17" t="s" s="171">
+        <v>91</v>
+      </c>
+      <c r="D17" s="172">
         <f>HEX2DEC(B17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="16.65" customHeight="1">
-      <c r="A18" s="192">
+      <c r="A18" s="170">
         <v>40000</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" t="s" s="193">
-        <v>89</v>
-      </c>
-      <c r="D18" s="194">
+      <c r="B18" s="170"/>
+      <c r="C18" t="s" s="171">
+        <v>92</v>
+      </c>
+      <c r="D18" s="172">
         <f>HEX2DEC(B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="192">
+      <c r="A19" s="170">
         <v>80000</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="170">
         <v>80000</v>
       </c>
-      <c r="C19" t="s" s="193">
-        <v>90</v>
-      </c>
-      <c r="D19" s="194">
+      <c r="C19" t="s" s="171">
+        <v>93</v>
+      </c>
+      <c r="D19" s="172">
         <f>HEX2DEC(B19)</f>
         <v>524288</v>
       </c>
     </row>
     <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="192">
+      <c r="A20" s="170">
         <v>100000</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" t="s" s="193">
-        <v>91</v>
-      </c>
-      <c r="D20" s="194">
+      <c r="B20" s="170"/>
+      <c r="C20" t="s" s="171">
+        <v>94</v>
+      </c>
+      <c r="D20" s="172">
         <f>HEX2DEC(B20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" s="192">
+      <c r="A21" s="170">
         <v>200000</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="170">
         <v>200000</v>
       </c>
-      <c r="C21" t="s" s="193">
-        <v>92</v>
-      </c>
-      <c r="D21" s="194">
+      <c r="C21" t="s" s="171">
+        <v>95</v>
+      </c>
+      <c r="D21" s="172">
         <f>HEX2DEC(B21)</f>
         <v>2097152</v>
       </c>
     </row>
     <row r="22" ht="16.65" customHeight="1">
-      <c r="A22" s="192">
+      <c r="A22" s="170">
         <v>400000</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" t="s" s="193">
-        <v>93</v>
-      </c>
-      <c r="D22" s="194">
+      <c r="B22" s="170"/>
+      <c r="C22" t="s" s="171">
+        <v>96</v>
+      </c>
+      <c r="D22" s="172">
         <f>HEX2DEC(B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="16.65" customHeight="1">
-      <c r="A23" s="192">
+      <c r="A23" s="170">
         <v>800000</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" t="s" s="193">
-        <v>94</v>
-      </c>
-      <c r="D23" s="194">
+      <c r="B23" s="170"/>
+      <c r="C23" t="s" s="171">
+        <v>97</v>
+      </c>
+      <c r="D23" s="172">
         <f>HEX2DEC(B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="192">
+      <c r="A24" s="170">
         <v>1000000</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" t="s" s="193">
-        <v>95</v>
-      </c>
-      <c r="D24" s="194">
+      <c r="B24" s="170"/>
+      <c r="C24" t="s" s="171">
+        <v>98</v>
+      </c>
+      <c r="D24" s="172">
         <f>HEX2DEC(B24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.65" customHeight="1">
-      <c r="A25" s="188"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="191"/>
+    <row r="25" ht="17" customHeight="1">
+      <c r="A25" s="170"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="169"/>
     </row>
     <row r="26" ht="17.65" customHeight="1">
-      <c r="A26" s="196"/>
-      <c r="B26" s="197"/>
-      <c r="C26" t="s" s="163">
-        <v>96</v>
-      </c>
-      <c r="D26" s="164">
+      <c r="A26" t="s" s="143">
+        <v>99</v>
+      </c>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="174">
         <f>SUM(D5:D24)</f>
         <v>2689795</v>
       </c>
     </row>
     <row r="27" ht="16.65" customHeight="1">
-      <c r="A27" s="198"/>
-      <c r="B27" s="199"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="200"/>
+      <c r="A27" s="175"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="177"/>
     </row>
     <row r="28" ht="14.7" customHeight="1">
-      <c r="A28" t="s" s="201">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s" s="202">
-        <v>74</v>
-      </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="203">
+      <c r="A28" t="s" s="178">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s" s="179">
+        <v>77</v>
+      </c>
+      <c r="C28" s="154"/>
+      <c r="D28" s="180">
         <v>17760515</v>
       </c>
     </row>
     <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" s="204"/>
-      <c r="B29" t="s" s="205">
-        <v>97</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="206">
+      <c r="A29" s="181"/>
+      <c r="B29" t="s" s="182">
+        <v>101</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="183">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -8822,125 +8581,126 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.6719" style="207" customWidth="1"/>
-    <col min="2" max="2" width="7.04688" style="207" customWidth="1"/>
-    <col min="3" max="3" width="40.1719" style="207" customWidth="1"/>
-    <col min="4" max="4" width="8.07031" style="207" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="207" customWidth="1"/>
+    <col min="1" max="1" width="10.6719" style="184" customWidth="1"/>
+    <col min="2" max="2" width="7.04688" style="184" customWidth="1"/>
+    <col min="3" max="3" width="40.1719" style="184" customWidth="1"/>
+    <col min="4" max="4" width="8.07031" style="184" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="184" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="147"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="151">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s" s="151">
+      <c r="A3" t="s" s="132">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="152">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s" s="152">
+      <c r="C3" t="s" s="133">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s" s="133">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="154"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="154"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="135"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="157">
+      <c r="A5" s="138">
         <v>1</v>
       </c>
-      <c r="B5" s="157">
+      <c r="B5" s="138">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="158">
-        <v>100</v>
-      </c>
-      <c r="D5" s="159">
+      <c r="C5" t="s" s="139">
+        <v>104</v>
+      </c>
+      <c r="D5" s="140">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="157">
+      <c r="A6" s="138">
         <v>2</v>
       </c>
-      <c r="B6" s="157">
+      <c r="B6" s="138">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="158">
-        <v>101</v>
-      </c>
-      <c r="D6" s="159">
+      <c r="C6" t="s" s="139">
+        <v>105</v>
+      </c>
+      <c r="D6" s="140">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="157">
+      <c r="A7" s="138">
         <v>4</v>
       </c>
-      <c r="B7" s="157">
+      <c r="B7" s="138">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="158">
-        <v>102</v>
-      </c>
-      <c r="D7" s="159">
+      <c r="C7" t="s" s="139">
+        <v>106</v>
+      </c>
+      <c r="D7" s="140">
         <f>HEX2DEC(B7)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="157">
+      <c r="A8" s="138">
         <v>8</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" t="s" s="158">
-        <v>103</v>
-      </c>
-      <c r="D8" s="159">
+      <c r="B8" s="138"/>
+      <c r="C8" t="s" s="139">
+        <v>107</v>
+      </c>
+      <c r="D8" s="140">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="154"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="135"/>
     </row>
     <row r="10" ht="17.65" customHeight="1">
-      <c r="A10" s="154"/>
-      <c r="B10" s="157"/>
-      <c r="C10" t="s" s="208">
-        <v>104</v>
-      </c>
-      <c r="D10" s="209">
+      <c r="A10" t="s" s="185">
+        <v>108</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="186">
         <f>SUM(D5:D8)</f>
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -8959,17 +8719,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="210" customWidth="1"/>
-    <col min="2" max="2" width="10.3906" style="210" customWidth="1"/>
-    <col min="3" max="3" width="7.28125" style="210" customWidth="1"/>
-    <col min="4" max="4" width="36.6719" style="210" customWidth="1"/>
-    <col min="5" max="5" width="6.94531" style="210" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="210" customWidth="1"/>
+    <col min="1" max="1" width="7.85156" style="187" customWidth="1"/>
+    <col min="2" max="2" width="10.3906" style="187" customWidth="1"/>
+    <col min="3" max="3" width="7.28125" style="187" customWidth="1"/>
+    <col min="4" max="4" width="36.6719" style="187" customWidth="1"/>
+    <col min="5" max="5" width="6.94531" style="187" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="187" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8977,211 +8737,211 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="147"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="3" ht="8.5" customHeight="1">
-      <c r="A3" t="s" s="152">
+      <c r="A3" t="s" s="133">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="213">
+      <c r="B3" t="s" s="190">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="152">
+      <c r="C3" t="s" s="133">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="152">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s" s="152">
+      <c r="D3" t="s" s="133">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s" s="133">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="23.65" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="214"/>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="189"/>
+      <c r="A5" s="191"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="167"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="215">
+      <c r="A6" s="192">
         <v>0</v>
       </c>
-      <c r="B6" s="157">
+      <c r="B6" s="138">
         <v>1</v>
       </c>
-      <c r="C6" s="157">
+      <c r="C6" s="138">
         <v>1</v>
       </c>
-      <c r="D6" t="s" s="158">
-        <v>106</v>
-      </c>
-      <c r="E6" s="159">
+      <c r="D6" t="s" s="139">
+        <v>110</v>
+      </c>
+      <c r="E6" s="140">
         <f>HEX2DEC(C6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="215">
+      <c r="A7" s="192">
         <v>1</v>
       </c>
-      <c r="B7" s="157">
+      <c r="B7" s="138">
         <v>2</v>
       </c>
-      <c r="C7" s="157">
+      <c r="C7" s="138">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="158">
-        <v>107</v>
-      </c>
-      <c r="E7" s="159">
+      <c r="D7" t="s" s="139">
+        <v>111</v>
+      </c>
+      <c r="E7" s="140">
         <f>HEX2DEC(C7)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="215">
+      <c r="A8" s="192">
         <v>2</v>
       </c>
-      <c r="B8" s="157">
+      <c r="B8" s="138">
         <v>4</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" t="s" s="158">
-        <v>108</v>
-      </c>
-      <c r="E8" s="159">
+      <c r="C8" s="138"/>
+      <c r="D8" t="s" s="139">
+        <v>112</v>
+      </c>
+      <c r="E8" s="140">
         <f>HEX2DEC(C8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="215">
+      <c r="A9" s="192">
         <v>3</v>
       </c>
-      <c r="B9" s="157">
+      <c r="B9" s="138">
         <v>8</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" t="s" s="158">
-        <v>109</v>
-      </c>
-      <c r="E9" s="159">
+      <c r="C9" s="138"/>
+      <c r="D9" t="s" s="139">
+        <v>113</v>
+      </c>
+      <c r="E9" s="140">
         <f>HEX2DEC(C9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="215">
+      <c r="A10" s="192">
         <v>4</v>
       </c>
-      <c r="B10" s="157">
+      <c r="B10" s="138">
         <v>10</v>
       </c>
-      <c r="C10" s="157"/>
-      <c r="D10" t="s" s="158">
-        <v>110</v>
-      </c>
-      <c r="E10" s="159">
+      <c r="C10" s="138"/>
+      <c r="D10" t="s" s="139">
+        <v>114</v>
+      </c>
+      <c r="E10" s="140">
         <f>HEX2DEC(C10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="215">
+      <c r="A11" s="192">
         <v>5</v>
       </c>
-      <c r="B11" s="157">
+      <c r="B11" s="138">
         <v>20</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" t="s" s="216">
-        <v>111</v>
-      </c>
-      <c r="E11" s="217">
+      <c r="C11" s="138"/>
+      <c r="D11" t="s" s="193">
+        <v>115</v>
+      </c>
+      <c r="E11" s="194">
         <f>HEX2DEC(C11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="215">
+      <c r="A12" s="192">
         <v>6</v>
       </c>
-      <c r="B12" s="157">
+      <c r="B12" s="138">
         <v>40</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" t="s" s="158">
-        <v>112</v>
-      </c>
-      <c r="E12" s="159">
+      <c r="C12" s="138"/>
+      <c r="D12" t="s" s="139">
+        <v>116</v>
+      </c>
+      <c r="E12" s="140">
         <f>HEX2DEC(C12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="14.7" customHeight="1">
-      <c r="A13" s="218"/>
-      <c r="B13" s="219"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="221"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" s="222"/>
-      <c r="B14" s="223"/>
-      <c r="C14" s="223"/>
-      <c r="D14" t="s" s="224">
-        <v>113</v>
-      </c>
-      <c r="E14" s="225">
+      <c r="A14" t="s" s="199">
+        <v>117</v>
+      </c>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="201">
         <f>SUM(E6:E12)</f>
         <v>3</v>
       </c>
     </row>
     <row r="15" ht="17.65" customHeight="1">
-      <c r="A15" s="226"/>
-      <c r="B15" s="227"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="228"/>
-      <c r="E15" s="229"/>
+      <c r="A15" s="202"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="205"/>
     </row>
     <row r="16" ht="14.7" customHeight="1">
-      <c r="A16" t="s" s="230">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s" s="231">
-        <v>74</v>
-      </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="203">
+      <c r="A16" t="s" s="206">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s" s="207">
+        <v>77</v>
+      </c>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="208">
         <v>3</v>
       </c>
     </row>
     <row r="17" ht="14.7" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" t="s" s="232">
-        <v>114</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="206">
+      <c r="A17" s="33"/>
+      <c r="B17" t="s" s="209">
+        <v>118</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="210">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9191,6 +8951,7 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
